--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB534920\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WB Tax Consultancy\Country-Year Temp\Country-Year Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43DF344-532C-4C16-A4C9-70964433F293}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982D27BC-553A-4620-85EF-17A8B3FDE094}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="23">
   <si>
     <t>UNU-WIDER</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>IMF Public Debt</t>
+  </si>
+  <si>
+    <t>MIMIC</t>
+  </si>
+  <si>
+    <t>WWBI</t>
+  </si>
+  <si>
+    <t>Primary Commodity Price System</t>
   </si>
 </sst>
 </file>
@@ -454,23 +463,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7D7228-0C6A-4BEE-B6FC-3E588B0E7219}">
-  <dimension ref="A3:Q33"/>
+  <dimension ref="A3:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.5234375" customWidth="1"/>
+    <col min="2" max="2" width="14.5234375" customWidth="1"/>
+    <col min="5" max="5" width="11.5234375" customWidth="1"/>
+    <col min="6" max="6" width="13.62890625" customWidth="1"/>
+    <col min="7" max="7" width="14.89453125" customWidth="1"/>
+    <col min="8" max="8" width="10.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -520,8 +529,17 @@
       <c r="Q3" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1990</v>
       </c>
@@ -545,8 +563,11 @@
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1991</v>
       </c>
@@ -570,8 +591,14 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1992</v>
       </c>
@@ -595,8 +622,14 @@
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1993</v>
       </c>
@@ -620,8 +653,14 @@
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1994</v>
       </c>
@@ -645,8 +684,14 @@
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>1995</v>
       </c>
@@ -670,8 +715,14 @@
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1996</v>
       </c>
@@ -698,8 +749,14 @@
       <c r="P10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1997</v>
       </c>
@@ -726,8 +783,14 @@
       <c r="P11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1998</v>
       </c>
@@ -756,8 +819,14 @@
       <c r="P12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1999</v>
       </c>
@@ -786,8 +855,14 @@
       <c r="P13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>2000</v>
       </c>
@@ -820,8 +895,14 @@
       <c r="P14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>2001</v>
       </c>
@@ -854,8 +935,14 @@
       <c r="P15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>2002</v>
       </c>
@@ -888,8 +975,14 @@
       <c r="P16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>2003</v>
       </c>
@@ -924,8 +1017,14 @@
       <c r="P17" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>2004</v>
       </c>
@@ -962,8 +1061,14 @@
       <c r="P18" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>2005</v>
       </c>
@@ -984,7 +1089,9 @@
       <c r="H19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1002,8 +1109,14 @@
       <c r="P19" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>2006</v>
       </c>
@@ -1026,7 +1139,9 @@
       <c r="H20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1044,8 +1159,14 @@
       <c r="P20" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>2007</v>
       </c>
@@ -1068,7 +1189,9 @@
       <c r="H21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1086,8 +1209,14 @@
       <c r="P21" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>2008</v>
       </c>
@@ -1110,7 +1239,9 @@
       <c r="H22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1128,8 +1259,14 @@
       <c r="P22" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>2009</v>
       </c>
@@ -1154,7 +1291,9 @@
       <c r="H23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1174,8 +1313,17 @@
       <c r="P23" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>2010</v>
       </c>
@@ -1200,7 +1348,9 @@
       <c r="H24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1220,8 +1370,17 @@
       <c r="P24" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>2011</v>
       </c>
@@ -1268,8 +1427,17 @@
       <c r="P25" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>2012</v>
       </c>
@@ -1294,7 +1462,7 @@
       <c r="H26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -1316,8 +1484,17 @@
       <c r="P26" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>2013</v>
       </c>
@@ -1342,7 +1519,7 @@
       <c r="H27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -1364,8 +1541,17 @@
       <c r="P27" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>2014</v>
       </c>
@@ -1390,7 +1576,7 @@
       <c r="H28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -1414,8 +1600,17 @@
       <c r="P28" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>2015</v>
       </c>
@@ -1440,7 +1635,7 @@
       <c r="H29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -1467,8 +1662,17 @@
       <c r="Q29" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>2016</v>
       </c>
@@ -1493,7 +1697,7 @@
       <c r="H30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -1517,8 +1721,12 @@
       <c r="P30" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R30" s="1"/>
+      <c r="T30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -1535,7 +1743,9 @@
       <c r="H31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1545,7 +1755,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -1560,15 +1770,13 @@
       <c r="H32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>13</v>

--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WB Tax Consultancy\Country-Year Temp\Country-Year Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982D27BC-553A-4620-85EF-17A8B3FDE094}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFEB9887-5F01-4506-B1DE-460B424FB68B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="24">
   <si>
     <t>UNU-WIDER</t>
   </si>
@@ -99,13 +99,16 @@
   </si>
   <si>
     <t>Primary Commodity Price System</t>
+  </si>
+  <si>
+    <t>ES Bribery Incidence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +124,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -145,10 +154,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,23 +473,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7D7228-0C6A-4BEE-B6FC-3E588B0E7219}">
-  <dimension ref="A3:T33"/>
+  <dimension ref="A3:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5234375" customWidth="1"/>
-    <col min="2" max="2" width="14.5234375" customWidth="1"/>
-    <col min="5" max="5" width="11.5234375" customWidth="1"/>
-    <col min="6" max="6" width="13.62890625" customWidth="1"/>
-    <col min="7" max="7" width="14.89453125" customWidth="1"/>
-    <col min="8" max="8" width="10.5234375" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -538,8 +548,11 @@
       <c r="T3" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1990</v>
       </c>
@@ -567,7 +580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1991</v>
       </c>
@@ -598,7 +611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1992</v>
       </c>
@@ -629,7 +642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1993</v>
       </c>
@@ -660,7 +673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1994</v>
       </c>
@@ -691,7 +704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1995</v>
       </c>
@@ -722,7 +735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1996</v>
       </c>
@@ -756,7 +769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1997</v>
       </c>
@@ -790,7 +803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1998</v>
       </c>
@@ -826,7 +839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1999</v>
       </c>
@@ -862,7 +875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2000</v>
       </c>
@@ -902,7 +915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2001</v>
       </c>
@@ -942,7 +955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2002</v>
       </c>
@@ -982,7 +995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2003</v>
       </c>
@@ -1024,7 +1037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2004</v>
       </c>
@@ -1068,7 +1081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2005</v>
       </c>
@@ -1116,7 +1129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2006</v>
       </c>
@@ -1165,8 +1178,11 @@
       <c r="T20" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2007</v>
       </c>
@@ -1215,8 +1231,11 @@
       <c r="T21" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2008</v>
       </c>
@@ -1265,8 +1284,11 @@
       <c r="T22" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2009</v>
       </c>
@@ -1322,8 +1344,11 @@
       <c r="T23" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2010</v>
       </c>
@@ -1379,8 +1404,11 @@
       <c r="T24" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2011</v>
       </c>
@@ -1436,8 +1464,11 @@
       <c r="T25" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2012</v>
       </c>
@@ -1493,8 +1524,11 @@
       <c r="T26" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2013</v>
       </c>
@@ -1550,8 +1584,11 @@
       <c r="T27" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2014</v>
       </c>
@@ -1609,8 +1646,11 @@
       <c r="T28" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2015</v>
       </c>
@@ -1671,8 +1711,11 @@
       <c r="T29" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2016</v>
       </c>
@@ -1725,8 +1768,11 @@
       <c r="T30" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -1754,8 +1800,11 @@
         <v>12</v>
       </c>
       <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -1776,7 +1825,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>13</v>
@@ -1795,5 +1844,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WB Tax Consultancy\Country-Year Temp\Country-Year Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFEB9887-5F01-4506-B1DE-460B424FB68B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982D27BC-553A-4620-85EF-17A8B3FDE094}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="23">
   <si>
     <t>UNU-WIDER</t>
   </si>
@@ -99,16 +99,13 @@
   </si>
   <si>
     <t>Primary Commodity Price System</t>
-  </si>
-  <si>
-    <t>ES Bribery Incidence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,12 +121,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -154,11 +145,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,23 +463,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7D7228-0C6A-4BEE-B6FC-3E588B0E7219}">
-  <dimension ref="A3:U33"/>
+  <dimension ref="A3:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.5234375" customWidth="1"/>
+    <col min="2" max="2" width="14.5234375" customWidth="1"/>
+    <col min="5" max="5" width="11.5234375" customWidth="1"/>
+    <col min="6" max="6" width="13.62890625" customWidth="1"/>
+    <col min="7" max="7" width="14.89453125" customWidth="1"/>
+    <col min="8" max="8" width="10.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -548,11 +538,8 @@
       <c r="T3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1990</v>
       </c>
@@ -580,7 +567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1991</v>
       </c>
@@ -611,7 +598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1992</v>
       </c>
@@ -642,7 +629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1993</v>
       </c>
@@ -673,7 +660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1994</v>
       </c>
@@ -704,7 +691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>1995</v>
       </c>
@@ -735,7 +722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1996</v>
       </c>
@@ -769,7 +756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1997</v>
       </c>
@@ -803,7 +790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1998</v>
       </c>
@@ -839,7 +826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1999</v>
       </c>
@@ -875,7 +862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>2000</v>
       </c>
@@ -915,7 +902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>2001</v>
       </c>
@@ -955,7 +942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>2002</v>
       </c>
@@ -995,7 +982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>2003</v>
       </c>
@@ -1037,7 +1024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>2004</v>
       </c>
@@ -1081,7 +1068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>2005</v>
       </c>
@@ -1129,7 +1116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>2006</v>
       </c>
@@ -1178,11 +1165,8 @@
       <c r="T20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>2007</v>
       </c>
@@ -1231,11 +1215,8 @@
       <c r="T21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>2008</v>
       </c>
@@ -1284,11 +1265,8 @@
       <c r="T22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U22" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>2009</v>
       </c>
@@ -1344,11 +1322,8 @@
       <c r="T23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U23" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>2010</v>
       </c>
@@ -1404,11 +1379,8 @@
       <c r="T24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U24" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>2011</v>
       </c>
@@ -1464,11 +1436,8 @@
       <c r="T25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>2012</v>
       </c>
@@ -1524,11 +1493,8 @@
       <c r="T26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>2013</v>
       </c>
@@ -1584,11 +1550,8 @@
       <c r="T27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>2014</v>
       </c>
@@ -1646,11 +1609,8 @@
       <c r="T28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>2015</v>
       </c>
@@ -1711,11 +1671,8 @@
       <c r="T29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>2016</v>
       </c>
@@ -1768,11 +1725,8 @@
       <c r="T30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U30" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -1800,11 +1754,8 @@
         <v>12</v>
       </c>
       <c r="P31" s="1"/>
-      <c r="U31" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -1825,7 +1776,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>13</v>
@@ -1844,6 +1795,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WB Tax Consultancy\Country-Year Temp\Country-Year Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982D27BC-553A-4620-85EF-17A8B3FDE094}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F65250-E6C9-43CE-BCEB-9A67E1846FBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="24">
   <si>
     <t>UNU-WIDER</t>
   </si>
@@ -99,13 +99,16 @@
   </si>
   <si>
     <t>Primary Commodity Price System</t>
+  </si>
+  <si>
+    <t>ES Bribery Incidence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +124,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -145,10 +154,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,23 +473,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7D7228-0C6A-4BEE-B6FC-3E588B0E7219}">
-  <dimension ref="A3:T33"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5234375" customWidth="1"/>
-    <col min="2" max="2" width="14.5234375" customWidth="1"/>
-    <col min="5" max="5" width="11.5234375" customWidth="1"/>
-    <col min="6" max="6" width="13.62890625" customWidth="1"/>
-    <col min="7" max="7" width="14.89453125" customWidth="1"/>
-    <col min="8" max="8" width="10.5234375" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -538,8 +554,11 @@
       <c r="T3" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1990</v>
       </c>
@@ -566,8 +585,9 @@
       <c r="T4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1991</v>
       </c>
@@ -597,8 +617,9 @@
       <c r="T5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1992</v>
       </c>
@@ -628,8 +649,9 @@
       <c r="T6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1993</v>
       </c>
@@ -659,8 +681,9 @@
       <c r="T7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1994</v>
       </c>
@@ -690,8 +713,9 @@
       <c r="T8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1995</v>
       </c>
@@ -721,8 +745,9 @@
       <c r="T9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1996</v>
       </c>
@@ -755,8 +780,9 @@
       <c r="T10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1997</v>
       </c>
@@ -789,8 +815,9 @@
       <c r="T11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1998</v>
       </c>
@@ -825,8 +852,9 @@
       <c r="T12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1999</v>
       </c>
@@ -861,8 +889,9 @@
       <c r="T13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2000</v>
       </c>
@@ -901,8 +930,9 @@
       <c r="T14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2001</v>
       </c>
@@ -941,8 +971,9 @@
       <c r="T15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2002</v>
       </c>
@@ -981,8 +1012,9 @@
       <c r="T16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2003</v>
       </c>
@@ -1023,8 +1055,9 @@
       <c r="T17" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2004</v>
       </c>
@@ -1067,8 +1100,9 @@
       <c r="T18" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2005</v>
       </c>
@@ -1115,8 +1149,9 @@
       <c r="T19" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2006</v>
       </c>
@@ -1165,8 +1200,11 @@
       <c r="T20" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2007</v>
       </c>
@@ -1215,8 +1253,11 @@
       <c r="T21" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2008</v>
       </c>
@@ -1265,8 +1306,11 @@
       <c r="T22" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2009</v>
       </c>
@@ -1322,8 +1366,11 @@
       <c r="T23" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2010</v>
       </c>
@@ -1379,8 +1426,11 @@
       <c r="T24" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2011</v>
       </c>
@@ -1436,8 +1486,11 @@
       <c r="T25" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2012</v>
       </c>
@@ -1493,8 +1546,11 @@
       <c r="T26" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2013</v>
       </c>
@@ -1550,8 +1606,11 @@
       <c r="T27" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2014</v>
       </c>
@@ -1609,8 +1668,11 @@
       <c r="T28" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2015</v>
       </c>
@@ -1671,8 +1733,11 @@
       <c r="T29" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2016</v>
       </c>
@@ -1725,8 +1790,11 @@
       <c r="T30" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -1754,8 +1822,11 @@
         <v>12</v>
       </c>
       <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -1776,7 +1847,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>13</v>
@@ -1795,5 +1866,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F65250-E6C9-43CE-BCEB-9A67E1846FBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A47DD3B-C76D-4DEB-BBDA-F36AD461229C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="25">
   <si>
     <t>UNU-WIDER</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>ES Bribery Incidence</t>
+  </si>
+  <si>
+    <t>OECD Air Emissions</t>
   </si>
 </sst>
 </file>
@@ -473,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7D7228-0C6A-4BEE-B6FC-3E588B0E7219}">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,13 +492,13 @@
     <col min="8" max="8" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -557,8 +560,11 @@
       <c r="U3" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1990</v>
       </c>
@@ -586,8 +592,11 @@
         <v>12</v>
       </c>
       <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1991</v>
       </c>
@@ -618,8 +627,11 @@
         <v>12</v>
       </c>
       <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1992</v>
       </c>
@@ -650,8 +662,11 @@
         <v>12</v>
       </c>
       <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1993</v>
       </c>
@@ -682,8 +697,11 @@
         <v>12</v>
       </c>
       <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1994</v>
       </c>
@@ -714,8 +732,11 @@
         <v>12</v>
       </c>
       <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1995</v>
       </c>
@@ -746,8 +767,11 @@
         <v>12</v>
       </c>
       <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1996</v>
       </c>
@@ -781,8 +805,11 @@
         <v>12</v>
       </c>
       <c r="U10" s="3"/>
-    </row>
-    <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1997</v>
       </c>
@@ -816,8 +843,11 @@
         <v>12</v>
       </c>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1998</v>
       </c>
@@ -853,8 +883,11 @@
         <v>12</v>
       </c>
       <c r="U12" s="3"/>
-    </row>
-    <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1999</v>
       </c>
@@ -890,8 +923,11 @@
         <v>12</v>
       </c>
       <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2000</v>
       </c>
@@ -931,8 +967,11 @@
         <v>12</v>
       </c>
       <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2001</v>
       </c>
@@ -972,8 +1011,11 @@
         <v>12</v>
       </c>
       <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2002</v>
       </c>
@@ -1013,8 +1055,11 @@
         <v>12</v>
       </c>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2003</v>
       </c>
@@ -1056,8 +1101,11 @@
         <v>12</v>
       </c>
       <c r="U17" s="3"/>
-    </row>
-    <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2004</v>
       </c>
@@ -1101,8 +1149,11 @@
         <v>12</v>
       </c>
       <c r="U18" s="3"/>
-    </row>
-    <row r="19" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2005</v>
       </c>
@@ -1150,8 +1201,11 @@
         <v>12</v>
       </c>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2006</v>
       </c>
@@ -1203,8 +1257,11 @@
       <c r="U20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2007</v>
       </c>
@@ -1256,8 +1313,11 @@
       <c r="U21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2008</v>
       </c>
@@ -1309,8 +1369,11 @@
       <c r="U22" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2009</v>
       </c>
@@ -1369,8 +1432,11 @@
       <c r="U23" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2010</v>
       </c>
@@ -1429,8 +1495,11 @@
       <c r="U24" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2011</v>
       </c>
@@ -1489,8 +1558,11 @@
       <c r="U25" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2012</v>
       </c>
@@ -1549,8 +1621,11 @@
       <c r="U26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2013</v>
       </c>
@@ -1609,8 +1684,11 @@
       <c r="U27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2014</v>
       </c>
@@ -1671,8 +1749,11 @@
       <c r="U28" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2015</v>
       </c>
@@ -1736,8 +1817,11 @@
       <c r="U29" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2016</v>
       </c>
@@ -1793,8 +1877,11 @@
       <c r="U30" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -1825,8 +1912,11 @@
       <c r="U31" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>

--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A47DD3B-C76D-4DEB-BBDA-F36AD461229C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D58A2AC-A979-448E-B0EF-271D1DCD9D2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="26">
   <si>
     <t>UNU-WIDER</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>OECD Air Emissions</t>
+  </si>
+  <si>
+    <t>WDI Climate Change</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7D7228-0C6A-4BEE-B6FC-3E588B0E7219}">
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,13 +495,13 @@
     <col min="8" max="8" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -563,8 +566,11 @@
       <c r="V3" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1990</v>
       </c>
@@ -595,8 +601,11 @@
       <c r="V4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1991</v>
       </c>
@@ -630,8 +639,11 @@
       <c r="V5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1992</v>
       </c>
@@ -665,8 +677,11 @@
       <c r="V6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1993</v>
       </c>
@@ -700,8 +715,11 @@
       <c r="V7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1994</v>
       </c>
@@ -735,8 +753,11 @@
       <c r="V8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1995</v>
       </c>
@@ -770,8 +791,11 @@
       <c r="V9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1996</v>
       </c>
@@ -808,8 +832,11 @@
       <c r="V10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1997</v>
       </c>
@@ -846,8 +873,11 @@
       <c r="V11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1998</v>
       </c>
@@ -886,8 +916,11 @@
       <c r="V12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1999</v>
       </c>
@@ -926,8 +959,11 @@
       <c r="V13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2000</v>
       </c>
@@ -970,8 +1006,11 @@
       <c r="V14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2001</v>
       </c>
@@ -1014,8 +1053,11 @@
       <c r="V15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2002</v>
       </c>
@@ -1058,8 +1100,11 @@
       <c r="V16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2003</v>
       </c>
@@ -1104,8 +1149,11 @@
       <c r="V17" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2004</v>
       </c>
@@ -1152,8 +1200,11 @@
       <c r="V18" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2005</v>
       </c>
@@ -1204,8 +1255,11 @@
       <c r="V19" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2006</v>
       </c>
@@ -1260,8 +1314,11 @@
       <c r="V20" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2007</v>
       </c>
@@ -1316,8 +1373,11 @@
       <c r="V21" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2008</v>
       </c>
@@ -1372,8 +1432,11 @@
       <c r="V22" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2009</v>
       </c>
@@ -1435,8 +1498,11 @@
       <c r="V23" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2010</v>
       </c>
@@ -1498,8 +1564,11 @@
       <c r="V24" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2011</v>
       </c>
@@ -1561,8 +1630,11 @@
       <c r="V25" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2012</v>
       </c>
@@ -1624,8 +1696,11 @@
       <c r="V26" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2013</v>
       </c>
@@ -1687,8 +1762,11 @@
       <c r="V27" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2014</v>
       </c>
@@ -1752,8 +1830,11 @@
       <c r="V28" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2015</v>
       </c>
@@ -1820,8 +1901,11 @@
       <c r="V29" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2016</v>
       </c>
@@ -1880,8 +1964,11 @@
       <c r="V30" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -1915,8 +2002,9 @@
       <c r="V31" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>

--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D58A2AC-A979-448E-B0EF-271D1DCD9D2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C70EAEF-D89A-404B-91CD-81033A659F97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="30">
   <si>
     <t>UNU-WIDER</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>WDI Climate Change</t>
+  </si>
+  <si>
+    <t>Fiscal Space</t>
+  </si>
+  <si>
+    <t>UNCTAD ICT</t>
+  </si>
+  <si>
+    <t>UNCTAD Tariffs</t>
+  </si>
+  <si>
+    <t>WDI Customs</t>
   </si>
 </sst>
 </file>
@@ -479,10 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7D7228-0C6A-4BEE-B6FC-3E588B0E7219}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,84 +510,181 @@
     <col min="8" max="8" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="U1" s="3"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1990</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="T2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1991</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="U3" s="3"/>
       <c r="V3" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -594,6 +706,9 @@
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="T4" s="1" t="s">
         <v>12</v>
       </c>
@@ -604,10 +719,19 @@
       <c r="W4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -642,10 +766,19 @@
       <c r="W5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -680,10 +813,19 @@
       <c r="W6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -718,10 +860,19 @@
       <c r="W7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -743,6 +894,9 @@
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="R8" s="1" t="s">
         <v>12</v>
       </c>
@@ -756,10 +910,19 @@
       <c r="W8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -781,6 +944,9 @@
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
+      <c r="P9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="R9" s="1" t="s">
         <v>12</v>
       </c>
@@ -794,10 +960,19 @@
       <c r="W9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -818,7 +993,9 @@
         <v>12</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="P10" s="1" t="s">
         <v>12</v>
       </c>
@@ -835,10 +1012,19 @@
       <c r="W10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -859,7 +1045,9 @@
         <v>12</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="P11" s="1" t="s">
         <v>12</v>
       </c>
@@ -876,10 +1064,19 @@
       <c r="W11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -900,7 +1097,11 @@
         <v>12</v>
       </c>
       <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="P12" s="1" t="s">
@@ -919,10 +1120,19 @@
       <c r="W12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -943,7 +1153,11 @@
         <v>12</v>
       </c>
       <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -962,10 +1176,19 @@
       <c r="W13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1009,10 +1232,22 @@
       <c r="W14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
@@ -1021,7 +1256,9 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1056,10 +1293,22 @@
       <c r="W15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
@@ -1067,8 +1316,12 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1103,25 +1356,43 @@
       <c r="W16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1152,27 +1423,45 @@
       <c r="W17" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1196,22 +1485,38 @@
       <c r="T18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U18" s="3"/>
+      <c r="U18" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="V18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1251,17 +1556,31 @@
       <c r="T19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U19" s="3"/>
+      <c r="U19" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="V19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
@@ -1276,7 +1595,7 @@
       <c r="F20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -1317,10 +1636,22 @@
       <c r="W20" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>12</v>
@@ -1331,11 +1662,13 @@
       <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -1351,7 +1684,9 @@
         <v>12</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1364,6 +1699,9 @@
       <c r="R21" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="S21" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="T21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1376,10 +1714,22 @@
       <c r="W21" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
@@ -1390,7 +1740,9 @@
       <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1410,7 +1762,9 @@
         <v>12</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1423,6 +1777,9 @@
       <c r="R22" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="S22" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="T22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1435,10 +1792,22 @@
       <c r="W22" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>12</v>
@@ -1455,7 +1824,7 @@
       <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -1501,10 +1870,22 @@
       <c r="W23" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>12</v>
@@ -1543,7 +1924,7 @@
       <c r="N24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P24" s="1" t="s">
@@ -1567,10 +1948,22 @@
       <c r="W24" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>12</v>
@@ -1587,7 +1980,7 @@
       <c r="F25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -1633,10 +2026,19 @@
       <c r="W25" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>12</v>
@@ -1668,7 +2070,9 @@
       <c r="K26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="M26" s="1" t="s">
         <v>12</v>
       </c>
@@ -1699,10 +2103,19 @@
       <c r="W26" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>12</v>
@@ -1734,7 +2147,9 @@
       <c r="K27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L27" s="1"/>
+      <c r="L27" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="M27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1747,6 +2162,9 @@
       <c r="P27" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Q27" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="R27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1765,10 +2183,19 @@
       <c r="W27" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
@@ -1809,18 +2236,13 @@
       <c r="N28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="R28" s="1"/>
       <c r="T28" s="1" t="s">
         <v>12</v>
       </c>
@@ -1833,26 +2255,27 @@
       <c r="W28" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="X28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
         <v>12</v>
       </c>
@@ -1862,185 +2285,68 @@
       <c r="I29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="1"/>
       <c r="U29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="W29" s="1"/>
+      <c r="Y29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R30" s="1"/>
-      <c r="T30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P31" s="1"/>
-      <c r="U31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W31" s="1"/>
-    </row>
-    <row r="32" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C70EAEF-D89A-404B-91CD-81033A659F97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826133D8-1EC3-45FB-BABC-61F89BF9D2AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="31">
   <si>
     <t>UNU-WIDER</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>WDI Customs</t>
+  </si>
+  <si>
+    <t>FinStats</t>
   </si>
 </sst>
 </file>
@@ -491,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7D7228-0C6A-4BEE-B6FC-3E588B0E7219}">
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z31" sqref="Z31"/>
+      <selection pane="bottomRight" activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -510,7 +513,7 @@
     <col min="8" max="8" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -590,8 +593,11 @@
       <c r="AA1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1990</v>
       </c>
@@ -634,8 +640,11 @@
       <c r="AA2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1991</v>
       </c>
@@ -681,8 +690,11 @@
       <c r="AA3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
@@ -728,8 +740,11 @@
       <c r="AA4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1993</v>
       </c>
@@ -775,8 +790,11 @@
       <c r="AA5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1994</v>
       </c>
@@ -822,8 +840,11 @@
       <c r="AA6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1995</v>
       </c>
@@ -869,8 +890,11 @@
       <c r="AA7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1996</v>
       </c>
@@ -919,8 +943,11 @@
       <c r="AA8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1997</v>
       </c>
@@ -969,8 +996,11 @@
       <c r="AA9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1998</v>
       </c>
@@ -1021,8 +1051,11 @@
       <c r="AA10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1999</v>
       </c>
@@ -1073,8 +1106,11 @@
       <c r="AA11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2000</v>
       </c>
@@ -1129,8 +1165,11 @@
       <c r="AA12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2001</v>
       </c>
@@ -1185,8 +1224,11 @@
       <c r="AA13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2002</v>
       </c>
@@ -1244,8 +1286,11 @@
       <c r="AA14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2003</v>
       </c>
@@ -1305,8 +1350,11 @@
       <c r="AA15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2004</v>
       </c>
@@ -1368,8 +1416,11 @@
       <c r="AA16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2005</v>
       </c>
@@ -1435,8 +1486,11 @@
       <c r="AA17" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2006</v>
       </c>
@@ -1506,8 +1560,11 @@
       <c r="AA18" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2007</v>
       </c>
@@ -1577,8 +1634,11 @@
       <c r="AA19" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2008</v>
       </c>
@@ -1648,8 +1708,11 @@
       <c r="AA20" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2009</v>
       </c>
@@ -1726,8 +1789,11 @@
       <c r="AA21" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2010</v>
       </c>
@@ -1804,8 +1870,11 @@
       <c r="AA22" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2011</v>
       </c>
@@ -1882,8 +1951,11 @@
       <c r="AA23" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2012</v>
       </c>
@@ -1960,8 +2032,11 @@
       <c r="AA24" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2013</v>
       </c>
@@ -2035,8 +2110,11 @@
       <c r="AA25" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -2112,8 +2190,11 @@
       <c r="AA26" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2015</v>
       </c>
@@ -2192,8 +2273,11 @@
       <c r="AA27" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2016</v>
       </c>
@@ -2264,8 +2348,11 @@
       <c r="AA28" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
@@ -2309,8 +2396,11 @@
       <c r="AA29" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -2331,7 +2421,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>13</v>

--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826133D8-1EC3-45FB-BABC-61F89BF9D2AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7013F9AE-609B-4DE7-9A09-1F06F0303240}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="32">
   <si>
     <t>UNU-WIDER</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>FinStats</t>
+  </si>
+  <si>
+    <t>GGKP Environment</t>
   </si>
 </sst>
 </file>
@@ -494,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7D7228-0C6A-4BEE-B6FC-3E588B0E7219}">
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y12" sqref="Y12"/>
+      <selection pane="bottomRight" activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,7 +516,7 @@
     <col min="8" max="8" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -596,8 +599,11 @@
       <c r="AB1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1990</v>
       </c>
@@ -643,8 +649,11 @@
       <c r="AB2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1991</v>
       </c>
@@ -693,8 +702,11 @@
       <c r="AB3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
@@ -743,8 +755,11 @@
       <c r="AB4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1993</v>
       </c>
@@ -793,8 +808,11 @@
       <c r="AB5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1994</v>
       </c>
@@ -843,8 +861,11 @@
       <c r="AB6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1995</v>
       </c>
@@ -893,8 +914,11 @@
       <c r="AB7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1996</v>
       </c>
@@ -946,8 +970,11 @@
       <c r="AB8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1997</v>
       </c>
@@ -999,8 +1026,11 @@
       <c r="AB9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1998</v>
       </c>
@@ -1054,8 +1084,11 @@
       <c r="AB10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1999</v>
       </c>
@@ -1109,8 +1142,11 @@
       <c r="AB11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2000</v>
       </c>
@@ -1168,8 +1204,11 @@
       <c r="AB12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2001</v>
       </c>
@@ -1227,8 +1266,11 @@
       <c r="AB13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2002</v>
       </c>
@@ -1289,8 +1331,11 @@
       <c r="AB14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2003</v>
       </c>
@@ -1353,8 +1398,11 @@
       <c r="AB15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2004</v>
       </c>
@@ -1419,8 +1467,11 @@
       <c r="AB16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2005</v>
       </c>
@@ -1489,8 +1540,11 @@
       <c r="AB17" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2006</v>
       </c>
@@ -1563,8 +1617,11 @@
       <c r="AB18" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2007</v>
       </c>
@@ -1637,8 +1694,11 @@
       <c r="AB19" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2008</v>
       </c>
@@ -1711,8 +1771,11 @@
       <c r="AB20" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2009</v>
       </c>
@@ -1792,8 +1855,11 @@
       <c r="AB21" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2010</v>
       </c>
@@ -1873,8 +1939,11 @@
       <c r="AB22" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2011</v>
       </c>
@@ -1954,8 +2023,11 @@
       <c r="AB23" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2012</v>
       </c>
@@ -2035,8 +2107,11 @@
       <c r="AB24" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2013</v>
       </c>
@@ -2113,8 +2188,11 @@
       <c r="AB25" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -2193,8 +2271,11 @@
       <c r="AB26" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2015</v>
       </c>
@@ -2276,8 +2357,11 @@
       <c r="AB27" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2016</v>
       </c>
@@ -2351,8 +2435,11 @@
       <c r="AB28" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
@@ -2399,8 +2486,11 @@
       <c r="AB29" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -2421,7 +2511,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>13</v>

--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7013F9AE-609B-4DE7-9A09-1F06F0303240}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207B9E95-99EC-4D07-B86E-3F397467C29C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="33">
   <si>
     <t>UNU-WIDER</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>GGKP Environment</t>
+  </si>
+  <si>
+    <t>IMF Energy Subsidies</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7D7228-0C6A-4BEE-B6FC-3E588B0E7219}">
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AD31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="O8" activePane="bottomRight" state="frozen"/>
@@ -516,7 +519,7 @@
     <col min="8" max="8" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -602,8 +605,11 @@
       <c r="AC1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AD1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1990</v>
       </c>
@@ -653,7 +659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1991</v>
       </c>
@@ -706,7 +712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
@@ -759,7 +765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1993</v>
       </c>
@@ -812,7 +818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1994</v>
       </c>
@@ -865,7 +871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1995</v>
       </c>
@@ -918,7 +924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1996</v>
       </c>
@@ -974,7 +980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1997</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1998</v>
       </c>
@@ -1088,7 +1094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1999</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2000</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2001</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2002</v>
       </c>
@@ -1335,7 +1341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2003</v>
       </c>
@@ -1402,7 +1408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2004</v>
       </c>
@@ -1471,7 +1477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2005</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2006</v>
       </c>
@@ -1621,7 +1627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2007</v>
       </c>
@@ -1698,7 +1704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2008</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2009</v>
       </c>
@@ -1859,7 +1865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2010</v>
       </c>
@@ -1943,7 +1949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2011</v>
       </c>
@@ -2027,7 +2033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2012</v>
       </c>
@@ -2111,7 +2117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2013</v>
       </c>
@@ -2192,7 +2198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -2275,7 +2281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2015</v>
       </c>
@@ -2361,7 +2367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2016</v>
       </c>
@@ -2438,8 +2444,11 @@
       <c r="AC28" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AD28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
@@ -2490,7 +2499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -2511,7 +2520,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>13</v>

--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207B9E95-99EC-4D07-B86E-3F397467C29C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02807829-BD88-4B20-AD17-C26C35C0FECC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="34">
   <si>
     <t>UNU-WIDER</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>IMF Energy Subsidies</t>
+  </si>
+  <si>
+    <t>TI Corruption Perceptions</t>
   </si>
 </sst>
 </file>
@@ -500,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7D7228-0C6A-4BEE-B6FC-3E588B0E7219}">
-  <dimension ref="A1:AD31"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD29" sqref="AD29"/>
+      <selection pane="bottomRight" activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,7 +522,7 @@
     <col min="8" max="8" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -608,8 +611,11 @@
       <c r="AD1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AE1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1990</v>
       </c>
@@ -659,7 +665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1991</v>
       </c>
@@ -712,7 +718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
@@ -765,7 +771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1993</v>
       </c>
@@ -818,7 +824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1994</v>
       </c>
@@ -871,7 +877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1995</v>
       </c>
@@ -924,7 +930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1996</v>
       </c>
@@ -980,7 +986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1997</v>
       </c>
@@ -1036,7 +1042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1998</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1999</v>
       </c>
@@ -1152,7 +1158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2000</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2001</v>
       </c>
@@ -1276,7 +1282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2002</v>
       </c>
@@ -1341,7 +1347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2003</v>
       </c>
@@ -1408,7 +1414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2004</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2005</v>
       </c>
@@ -1550,7 +1556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2006</v>
       </c>
@@ -1627,7 +1633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2007</v>
       </c>
@@ -1704,7 +1710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2008</v>
       </c>
@@ -1781,7 +1787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2009</v>
       </c>
@@ -1865,7 +1871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2010</v>
       </c>
@@ -1949,7 +1955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2011</v>
       </c>
@@ -2033,7 +2039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2012</v>
       </c>
@@ -2116,8 +2122,11 @@
       <c r="AC24" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AE24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2013</v>
       </c>
@@ -2197,8 +2206,11 @@
       <c r="AC25" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AE25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -2280,8 +2292,11 @@
       <c r="AC26" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AE26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2015</v>
       </c>
@@ -2366,8 +2381,11 @@
       <c r="AC27" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AE27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2016</v>
       </c>
@@ -2447,8 +2465,11 @@
       <c r="AD28" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AE28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
@@ -2499,7 +2520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -2520,7 +2541,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>13</v>

--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02807829-BD88-4B20-AD17-C26C35C0FECC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3BD362-C1FB-4A5B-ACA9-5B25DAF09D08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="35">
   <si>
     <t>UNU-WIDER</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>TI Corruption Perceptions</t>
+  </si>
+  <si>
+    <t>Our World in Data - Plastic Waste</t>
   </si>
 </sst>
 </file>
@@ -503,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7D7228-0C6A-4BEE-B6FC-3E588B0E7219}">
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE28" sqref="AE28"/>
+      <selection pane="bottomRight" activeCell="AF22" sqref="AF22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,7 +525,7 @@
     <col min="8" max="8" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -614,8 +617,11 @@
       <c r="AE1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AF1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1990</v>
       </c>
@@ -665,7 +671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1991</v>
       </c>
@@ -718,7 +724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
@@ -771,7 +777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1993</v>
       </c>
@@ -824,7 +830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1994</v>
       </c>
@@ -877,7 +883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1995</v>
       </c>
@@ -930,7 +936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1996</v>
       </c>
@@ -986,7 +992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1997</v>
       </c>
@@ -1042,7 +1048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1998</v>
       </c>
@@ -1100,7 +1106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1999</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2000</v>
       </c>
@@ -1220,7 +1226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2001</v>
       </c>
@@ -1282,7 +1288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2002</v>
       </c>
@@ -1347,7 +1353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2003</v>
       </c>
@@ -1414,7 +1420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2004</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2005</v>
       </c>
@@ -1556,7 +1562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2006</v>
       </c>
@@ -1633,7 +1639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2007</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2008</v>
       </c>
@@ -1787,7 +1793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2009</v>
       </c>
@@ -1871,7 +1877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2010</v>
       </c>
@@ -1954,8 +1960,11 @@
       <c r="AC22" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AF22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2011</v>
       </c>
@@ -2039,7 +2048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2012</v>
       </c>
@@ -2126,7 +2135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2013</v>
       </c>
@@ -2210,7 +2219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -2296,7 +2305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2015</v>
       </c>
@@ -2385,7 +2394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2016</v>
       </c>
@@ -2469,7 +2478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
@@ -2520,7 +2529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -2541,7 +2550,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>13</v>

--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WB Tax Consultancy\Country-Year Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3BD362-C1FB-4A5B-ACA9-5B25DAF09D08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5130B823-A18A-414A-8E3B-A1155800A9FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="36">
   <si>
     <t>UNU-WIDER</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Our World in Data - Plastic Waste</t>
+  </si>
+  <si>
+    <t>Financial Secrecy Index (2018)</t>
   </si>
 </sst>
 </file>
@@ -187,11 +190,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,26 +512,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7D7228-0C6A-4BEE-B6FC-3E588B0E7219}">
-  <dimension ref="A1:AF31"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF22" sqref="AF22"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.5234375" customWidth="1"/>
+    <col min="2" max="2" width="14.5234375" customWidth="1"/>
+    <col min="5" max="5" width="11.5234375" customWidth="1"/>
+    <col min="6" max="6" width="13.62890625" customWidth="1"/>
+    <col min="7" max="7" width="14.89453125" customWidth="1"/>
+    <col min="8" max="8" width="10.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -620,8 +626,11 @@
       <c r="AF1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1990</v>
       </c>
@@ -670,8 +679,11 @@
       <c r="AC2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1991</v>
       </c>
@@ -723,8 +735,11 @@
       <c r="AC3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
@@ -776,8 +791,11 @@
       <c r="AC4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1993</v>
       </c>
@@ -829,8 +847,11 @@
       <c r="AC5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1994</v>
       </c>
@@ -882,8 +903,11 @@
       <c r="AC6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1995</v>
       </c>
@@ -935,8 +959,11 @@
       <c r="AC7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1996</v>
       </c>
@@ -991,8 +1018,11 @@
       <c r="AC8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>1997</v>
       </c>
@@ -1047,8 +1077,11 @@
       <c r="AC9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1998</v>
       </c>
@@ -1105,8 +1138,11 @@
       <c r="AC10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1999</v>
       </c>
@@ -1163,8 +1199,11 @@
       <c r="AC11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>2000</v>
       </c>
@@ -1225,8 +1264,11 @@
       <c r="AC12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>2001</v>
       </c>
@@ -1287,8 +1329,11 @@
       <c r="AC13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>2002</v>
       </c>
@@ -1352,8 +1397,11 @@
       <c r="AC14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>2003</v>
       </c>
@@ -1419,8 +1467,11 @@
       <c r="AC15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>2004</v>
       </c>
@@ -1488,8 +1539,11 @@
       <c r="AC16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>2005</v>
       </c>
@@ -1561,8 +1615,11 @@
       <c r="AC17" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>2006</v>
       </c>
@@ -1638,8 +1695,11 @@
       <c r="AC18" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>2007</v>
       </c>
@@ -1715,8 +1775,11 @@
       <c r="AC19" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>2008</v>
       </c>
@@ -1792,8 +1855,11 @@
       <c r="AC20" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>2009</v>
       </c>
@@ -1876,8 +1942,11 @@
       <c r="AC21" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>2010</v>
       </c>
@@ -1963,8 +2032,11 @@
       <c r="AF22" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>2011</v>
       </c>
@@ -2047,8 +2119,11 @@
       <c r="AC23" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>2012</v>
       </c>
@@ -2134,8 +2209,11 @@
       <c r="AE24" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>2013</v>
       </c>
@@ -2218,8 +2296,11 @@
       <c r="AE25" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -2304,8 +2385,11 @@
       <c r="AE26" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>2015</v>
       </c>
@@ -2393,8 +2477,11 @@
       <c r="AE27" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>2016</v>
       </c>
@@ -2477,8 +2564,11 @@
       <c r="AE28" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
@@ -2529,8 +2619,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:33" ht="45.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="1"/>
@@ -2550,7 +2640,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>13</v>

--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WB Tax Consultancy\Country-Year Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5130B823-A18A-414A-8E3B-A1155800A9FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C1D2AE-7897-4FFC-BF3A-900096B538DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="37">
   <si>
     <t>UNU-WIDER</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Financial Secrecy Index (2018)</t>
+  </si>
+  <si>
+    <t>Heritage Freedoms Index</t>
   </si>
 </sst>
 </file>
@@ -512,26 +515,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7D7228-0C6A-4BEE-B6FC-3E588B0E7219}">
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5234375" customWidth="1"/>
-    <col min="2" max="2" width="14.5234375" customWidth="1"/>
-    <col min="5" max="5" width="11.5234375" customWidth="1"/>
-    <col min="6" max="6" width="13.62890625" customWidth="1"/>
-    <col min="7" max="7" width="14.89453125" customWidth="1"/>
-    <col min="8" max="8" width="10.5234375" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -629,8 +632,11 @@
       <c r="AG1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="AH1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1990</v>
       </c>
@@ -683,7 +689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1991</v>
       </c>
@@ -739,7 +745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
@@ -795,7 +801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1993</v>
       </c>
@@ -851,7 +857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1994</v>
       </c>
@@ -907,7 +913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1995</v>
       </c>
@@ -963,7 +969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1996</v>
       </c>
@@ -1022,7 +1028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1997</v>
       </c>
@@ -1081,7 +1087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1998</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1999</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2000</v>
       </c>
@@ -1268,7 +1274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2001</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2002</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2003</v>
       </c>
@@ -1471,7 +1477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2004</v>
       </c>
@@ -1543,7 +1549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2005</v>
       </c>
@@ -1619,7 +1625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2006</v>
       </c>
@@ -1699,7 +1705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2007</v>
       </c>
@@ -1779,7 +1785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2008</v>
       </c>
@@ -1859,7 +1865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2009</v>
       </c>
@@ -1946,7 +1952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2010</v>
       </c>
@@ -2036,7 +2042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2011</v>
       </c>
@@ -2123,7 +2129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2012</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2013</v>
       </c>
@@ -2299,8 +2305,11 @@
       <c r="AG25" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="AH25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -2388,8 +2397,11 @@
       <c r="AG26" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="AH26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2015</v>
       </c>
@@ -2480,8 +2492,11 @@
       <c r="AG27" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="AH27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2016</v>
       </c>
@@ -2567,8 +2582,11 @@
       <c r="AG28" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="AH28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
@@ -2619,7 +2637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="45.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:34" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>14</v>
       </c>
@@ -2640,7 +2658,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>13</v>

--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WB Tax Consultancy\updating ICTD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C1D2AE-7897-4FFC-BF3A-900096B538DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A25FBD-83AC-4C22-812B-F1D4B9C63614}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="33">
   <si>
     <t>UNU-WIDER</t>
   </si>
@@ -104,12 +104,6 @@
     <t>ES Bribery Incidence</t>
   </si>
   <si>
-    <t>OECD Air Emissions</t>
-  </si>
-  <si>
-    <t>WDI Climate Change</t>
-  </si>
-  <si>
     <t>Fiscal Space</t>
   </si>
   <si>
@@ -125,22 +119,16 @@
     <t>FinStats</t>
   </si>
   <si>
-    <t>GGKP Environment</t>
-  </si>
-  <si>
     <t>IMF Energy Subsidies</t>
   </si>
   <si>
     <t>TI Corruption Perceptions</t>
   </si>
   <si>
-    <t>Our World in Data - Plastic Waste</t>
-  </si>
-  <si>
     <t>Financial Secrecy Index (2018)</t>
   </si>
   <si>
-    <t>Heritage Freedoms Index</t>
+    <t>Heritage</t>
   </si>
 </sst>
 </file>
@@ -515,26 +503,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7D7228-0C6A-4BEE-B6FC-3E588B0E7219}">
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.5234375" customWidth="1"/>
+    <col min="2" max="2" width="14.5234375" customWidth="1"/>
+    <col min="5" max="5" width="11.5234375" customWidth="1"/>
+    <col min="6" max="6" width="13.62890625" customWidth="1"/>
+    <col min="7" max="7" width="14.89453125" customWidth="1"/>
+    <col min="8" max="8" width="10.5234375" customWidth="1"/>
+    <col min="28" max="28" width="8.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -603,16 +592,16 @@
         <v>25</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Z1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>30</v>
@@ -623,20 +612,8 @@
       <c r="AD1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1990</v>
       </c>
@@ -667,29 +644,20 @@
       <c r="V2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="X2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Y2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="Z2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1991</v>
       </c>
@@ -723,29 +691,20 @@
       <c r="V3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="X3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Y3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="Z3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
@@ -779,29 +738,20 @@
       <c r="V4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="X4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Y4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="Z4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1993</v>
       </c>
@@ -835,29 +785,20 @@
       <c r="V5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="X5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Y5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="Z5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1994</v>
       </c>
@@ -891,29 +832,20 @@
       <c r="V6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="X6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Y6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="Z6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1995</v>
       </c>
@@ -947,29 +879,20 @@
       <c r="V7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="X7" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Y7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="Z7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1996</v>
       </c>
@@ -1006,29 +929,20 @@
       <c r="V8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W8" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="X8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Y8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="Z8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>1997</v>
       </c>
@@ -1065,29 +979,20 @@
       <c r="V9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="X9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Y9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="Z9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1998</v>
       </c>
@@ -1126,29 +1031,20 @@
       <c r="V10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W10" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="X10" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Y10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="Z10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1999</v>
       </c>
@@ -1187,29 +1083,20 @@
       <c r="V11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W11" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="X11" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Y11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="Z11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>2000</v>
       </c>
@@ -1252,29 +1139,20 @@
       <c r="V12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W12" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="X12" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Y12" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="Z12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>2001</v>
       </c>
@@ -1317,29 +1195,20 @@
       <c r="V13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W13" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="X13" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Y13" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="Z13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>2002</v>
       </c>
@@ -1394,20 +1263,11 @@
       <c r="Z14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>2003</v>
       </c>
@@ -1464,20 +1324,11 @@
       <c r="Z15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>2004</v>
       </c>
@@ -1536,20 +1387,11 @@
       <c r="Z16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>2005</v>
       </c>
@@ -1612,20 +1454,11 @@
       <c r="Z17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>2006</v>
       </c>
@@ -1692,20 +1525,11 @@
       <c r="Z18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>2007</v>
       </c>
@@ -1772,20 +1596,11 @@
       <c r="Z19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>2008</v>
       </c>
@@ -1852,20 +1667,11 @@
       <c r="Z20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>2009</v>
       </c>
@@ -1939,20 +1745,11 @@
       <c r="Z21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG21" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>2010</v>
       </c>
@@ -2026,23 +1823,11 @@
       <c r="Z22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG22" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>2011</v>
       </c>
@@ -2116,20 +1901,11 @@
       <c r="Z23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG23" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>2012</v>
       </c>
@@ -2203,23 +1979,14 @@
       <c r="Z24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA24" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="AB24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG24" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>2013</v>
       </c>
@@ -2281,35 +2048,26 @@
       <c r="V25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W25" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="X25" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Y25" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="Z25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA25" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="AB25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -2373,35 +2131,26 @@
       <c r="V26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W26" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="X26" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Y26" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="Z26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA26" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="AB26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>2015</v>
       </c>
@@ -2468,12 +2217,12 @@
       <c r="V27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W27" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="X27" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Y27" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="Z27" s="1" t="s">
         <v>12</v>
       </c>
@@ -2483,20 +2232,14 @@
       <c r="AB27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AC27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>2016</v>
       </c>
@@ -2527,9 +2270,7 @@
       <c r="J28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
         <v>12</v>
       </c>
@@ -2546,6 +2287,9 @@
         <v>12</v>
       </c>
       <c r="R28" s="1"/>
+      <c r="S28" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="T28" s="1" t="s">
         <v>12</v>
       </c>
@@ -2555,12 +2299,12 @@
       <c r="V28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W28" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="X28" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Y28" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="Z28" s="1" t="s">
         <v>12</v>
       </c>
@@ -2570,57 +2314,67 @@
       <c r="AB28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC28" s="1" t="s">
+      <c r="AC28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="AD28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AE28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2" t="s">
+    </row>
+    <row r="29" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P29" s="1"/>
-      <c r="U29" s="3" t="s">
+      <c r="M29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="T29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W29" s="1"/>
+      <c r="X29" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="Y29" s="1" t="s">
         <v>12</v>
       </c>
@@ -2633,48 +2387,95 @@
       <c r="AB29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>14</v>
+      <c r="AC29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="N30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="U30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="45.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
+    <row r="32" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WB Tax Consultancy\updating ICTD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\Country-Year Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A25FBD-83AC-4C22-812B-F1D4B9C63614}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBC77D8-0EDB-42DA-9399-A7F36600715A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="34">
   <si>
     <t>UNU-WIDER</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Heritage</t>
+  </si>
+  <si>
+    <t>UN e-Governance</t>
   </si>
 </sst>
 </file>
@@ -503,27 +506,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7D7228-0C6A-4BEE-B6FC-3E588B0E7219}">
-  <dimension ref="A1:AD32"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T23" sqref="T23"/>
+      <selection pane="bottomRight" activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5234375" customWidth="1"/>
-    <col min="2" max="2" width="14.5234375" customWidth="1"/>
-    <col min="5" max="5" width="11.5234375" customWidth="1"/>
-    <col min="6" max="6" width="13.62890625" customWidth="1"/>
-    <col min="7" max="7" width="14.89453125" customWidth="1"/>
-    <col min="8" max="8" width="10.5234375" customWidth="1"/>
-    <col min="28" max="28" width="8.83984375" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="28" max="28" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -612,8 +615,11 @@
       <c r="AD1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1990</v>
       </c>
@@ -657,7 +663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1991</v>
       </c>
@@ -704,7 +710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
@@ -751,7 +757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1993</v>
       </c>
@@ -798,7 +804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1994</v>
       </c>
@@ -845,7 +851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1995</v>
       </c>
@@ -892,7 +898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1996</v>
       </c>
@@ -942,7 +948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1997</v>
       </c>
@@ -992,7 +998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1998</v>
       </c>
@@ -1044,7 +1050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1999</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2000</v>
       </c>
@@ -1152,7 +1158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2001</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2002</v>
       </c>
@@ -1267,7 +1273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2003</v>
       </c>
@@ -1327,8 +1333,11 @@
       <c r="AC15" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2004</v>
       </c>
@@ -1390,8 +1399,11 @@
       <c r="AC16" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2005</v>
       </c>
@@ -1457,8 +1469,11 @@
       <c r="AC17" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2006</v>
       </c>
@@ -1529,7 +1544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2007</v>
       </c>
@@ -1600,7 +1615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2008</v>
       </c>
@@ -1670,8 +1685,11 @@
       <c r="AC20" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2009</v>
       </c>
@@ -1749,7 +1767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2010</v>
       </c>
@@ -1826,8 +1844,11 @@
       <c r="AC22" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2011</v>
       </c>
@@ -1905,7 +1926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2012</v>
       </c>
@@ -1985,8 +2006,11 @@
       <c r="AC24" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2013</v>
       </c>
@@ -2067,7 +2091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -2149,8 +2173,11 @@
       <c r="AD26" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2015</v>
       </c>
@@ -2239,7 +2266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2016</v>
       </c>
@@ -2320,8 +2347,11 @@
       <c r="AD28" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2017</v>
       </c>
@@ -2394,7 +2424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -2438,7 +2468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="45.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:31" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -2459,7 +2489,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:30" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>13</v>

--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\Country-Year Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBC77D8-0EDB-42DA-9399-A7F36600715A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69151FE0-33F5-451A-8C74-71BE8036FB8F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="35">
   <si>
     <t>UNU-WIDER</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>UN e-Governance</t>
+  </si>
+  <si>
+    <t>WDI - Human Capital</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7D7228-0C6A-4BEE-B6FC-3E588B0E7219}">
-  <dimension ref="A1:AE32"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
@@ -523,10 +526,10 @@
     <col min="6" max="6" width="13.6328125" customWidth="1"/>
     <col min="7" max="7" width="14.90625" customWidth="1"/>
     <col min="8" max="8" width="10.54296875" customWidth="1"/>
-    <col min="28" max="28" width="8.81640625" customWidth="1"/>
+    <col min="27" max="27" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -565,61 +568,64 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1990</v>
       </c>
@@ -643,11 +649,14 @@
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="T2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="X2" s="1" t="s">
@@ -656,14 +665,11 @@
       <c r="Y2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1991</v>
       </c>
@@ -687,14 +693,17 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="R3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="X3" s="1" t="s">
@@ -703,14 +712,11 @@
       <c r="Y3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
@@ -734,14 +740,17 @@
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="R4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="X4" s="1" t="s">
@@ -750,14 +759,11 @@
       <c r="Y4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1993</v>
       </c>
@@ -781,14 +787,17 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="R5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="X5" s="1" t="s">
@@ -797,14 +806,11 @@
       <c r="Y5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1994</v>
       </c>
@@ -828,14 +834,17 @@
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="R6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="X6" s="1" t="s">
@@ -844,14 +853,11 @@
       <c r="Y6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1995</v>
       </c>
@@ -875,14 +881,17 @@
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="R7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U7" s="3"/>
-      <c r="V7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="X7" s="1" t="s">
@@ -891,14 +900,11 @@
       <c r="Y7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1996</v>
       </c>
@@ -922,17 +928,20 @@
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="P8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U8" s="3"/>
-      <c r="V8" s="1" t="s">
+      <c r="O8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="X8" s="1" t="s">
@@ -941,14 +950,11 @@
       <c r="Y8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1997</v>
       </c>
@@ -972,17 +978,20 @@
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="P9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U9" s="3"/>
-      <c r="V9" s="1" t="s">
+      <c r="O9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="X9" s="1" t="s">
@@ -991,14 +1000,11 @@
       <c r="Y9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1998</v>
       </c>
@@ -1021,20 +1027,20 @@
         <v>12</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="N10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U10" s="3"/>
-      <c r="V10" s="1" t="s">
+      <c r="O10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="X10" s="1" t="s">
@@ -1043,14 +1049,11 @@
       <c r="Y10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1999</v>
       </c>
@@ -1073,20 +1076,20 @@
         <v>12</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="N11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U11" s="3"/>
-      <c r="V11" s="1" t="s">
+      <c r="O11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="X11" s="1" t="s">
@@ -1095,14 +1098,14 @@
       <c r="Y11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2000</v>
       </c>
@@ -1132,17 +1135,17 @@
       <c r="O12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U12" s="3"/>
-      <c r="V12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="X12" s="1" t="s">
@@ -1151,14 +1154,17 @@
       <c r="Y12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2001</v>
       </c>
@@ -1188,17 +1194,17 @@
       <c r="O13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U13" s="3"/>
-      <c r="V13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="X13" s="1" t="s">
@@ -1207,14 +1213,17 @@
       <c r="Y13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2002</v>
       </c>
@@ -1244,16 +1253,16 @@
       <c r="O14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U14" s="3"/>
+      <c r="Q14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="V14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1266,14 +1275,17 @@
       <c r="Y14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2003</v>
       </c>
@@ -1305,16 +1317,16 @@
       <c r="O15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U15" s="3"/>
+      <c r="Q15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="V15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1327,17 +1339,20 @@
       <c r="Y15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC15" s="2" t="s">
+      <c r="AB15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AE15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AF15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2004</v>
       </c>
@@ -1371,16 +1386,16 @@
       <c r="O16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U16" s="3"/>
+      <c r="Q16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="V16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1393,17 +1408,20 @@
       <c r="Y16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC16" s="2" t="s">
+      <c r="AB16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AE16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AF16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2005</v>
       </c>
@@ -1441,16 +1459,16 @@
       <c r="O17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U17" s="3"/>
+      <c r="Q17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="V17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1463,17 +1481,20 @@
       <c r="Y17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC17" s="2" t="s">
+      <c r="AB17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AE17" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AF17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2006</v>
       </c>
@@ -1513,16 +1534,16 @@
       <c r="O18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U18" s="3" t="s">
+      <c r="Q18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="V18" s="1" t="s">
@@ -1537,14 +1558,17 @@
       <c r="Y18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2007</v>
       </c>
@@ -1584,16 +1608,16 @@
       <c r="O19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U19" s="3" t="s">
+      <c r="Q19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="V19" s="1" t="s">
@@ -1608,14 +1632,17 @@
       <c r="Y19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2008</v>
       </c>
@@ -1655,16 +1682,16 @@
       <c r="O20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U20" s="3" t="s">
+      <c r="Q20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="V20" s="1" t="s">
@@ -1679,17 +1706,20 @@
       <c r="Y20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC20" s="2" t="s">
+      <c r="AB20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AE20" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AF20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2009</v>
       </c>
@@ -1733,7 +1763,7 @@
       <c r="O21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="R21" s="1" t="s">
@@ -1742,10 +1772,10 @@
       <c r="S21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U21" s="3" t="s">
+      <c r="T21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="V21" s="1" t="s">
@@ -1760,14 +1790,17 @@
       <c r="Y21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2010</v>
       </c>
@@ -1811,7 +1844,7 @@
       <c r="O22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="R22" s="1" t="s">
@@ -1820,10 +1853,10 @@
       <c r="S22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U22" s="3" t="s">
+      <c r="T22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="V22" s="1" t="s">
@@ -1838,17 +1871,20 @@
       <c r="Y22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC22" s="2" t="s">
+      <c r="AB22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AE22" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AF22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2011</v>
       </c>
@@ -1892,7 +1928,7 @@
       <c r="O23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="R23" s="1" t="s">
@@ -1901,10 +1937,10 @@
       <c r="S23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U23" s="3" t="s">
+      <c r="T23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="V23" s="1" t="s">
@@ -1919,14 +1955,17 @@
       <c r="Y23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2012</v>
       </c>
@@ -1964,13 +2003,13 @@
       <c r="M24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P24" s="1" t="s">
+      <c r="N24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="R24" s="1" t="s">
@@ -1979,10 +2018,10 @@
       <c r="S24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U24" s="3" t="s">
+      <c r="T24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="V24" s="1" t="s">
@@ -1997,20 +2036,23 @@
       <c r="Y24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC24" s="2" t="s">
+      <c r="AA24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AE24" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AF24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2013</v>
       </c>
@@ -2054,7 +2096,7 @@
       <c r="O25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="R25" s="1" t="s">
@@ -2063,13 +2105,13 @@
       <c r="S25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V25" s="1" t="s">
+      <c r="T25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="X25" s="1" t="s">
@@ -2078,20 +2120,23 @@
       <c r="Y25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AA25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -2131,13 +2176,13 @@
       <c r="M26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P26" s="1" t="s">
+      <c r="N26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="R26" s="1" t="s">
@@ -2146,13 +2191,13 @@
       <c r="S26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V26" s="1" t="s">
+      <c r="T26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="X26" s="1" t="s">
@@ -2161,13 +2206,13 @@
       <c r="Y26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC26" s="2" t="s">
+      <c r="AA26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AD26" s="1" t="s">
@@ -2176,8 +2221,11 @@
       <c r="AE26" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AF26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2015</v>
       </c>
@@ -2235,13 +2283,13 @@
       <c r="S27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V27" s="1" t="s">
+      <c r="T27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="X27" s="1" t="s">
@@ -2256,17 +2304,20 @@
       <c r="AA27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AB27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2016</v>
       </c>
@@ -2310,20 +2361,20 @@
       <c r="O28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="S28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V28" s="1" t="s">
+      <c r="T28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="X28" s="1" t="s">
@@ -2338,10 +2389,10 @@
       <c r="AA28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AB28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC28" s="2" t="s">
+      <c r="AB28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AD28" s="1" t="s">
@@ -2350,8 +2401,11 @@
       <c r="AE28" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AF28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2017</v>
       </c>
@@ -2389,17 +2443,17 @@
       <c r="O29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="S29" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="T29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="W29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="X29" s="1" t="s">
@@ -2414,17 +2468,17 @@
       <c r="AA29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AB29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -2448,11 +2502,11 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P30" s="1"/>
-      <c r="U30" s="3" t="s">
+      <c r="O30" s="1"/>
+      <c r="T30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="W30" s="1" t="s">
@@ -2464,11 +2518,8 @@
       <c r="Y30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z30" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" ht="46.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:32" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -2489,7 +2540,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>13</v>

--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Desktop\Tax-Datasets-master\Country-Year Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69151FE0-33F5-451A-8C74-71BE8036FB8F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82E4C96-89E0-4B51-AC08-102C617B0363}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{34655BF9-1E61-4AD4-85E3-AE7AF2CA5888}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="37">
   <si>
     <t>UNU-WIDER</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>WDI - Human Capital</t>
+  </si>
+  <si>
+    <t>GFS Social Expenditure</t>
+  </si>
+  <si>
+    <t>Tax Wedge</t>
   </si>
 </sst>
 </file>
@@ -509,13 +515,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7D7228-0C6A-4BEE-B6FC-3E588B0E7219}">
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AH32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE29" sqref="AE29"/>
+      <selection pane="bottomRight" activeCell="AH12" sqref="AH12:AH29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,7 +535,7 @@
     <col min="27" max="27" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -624,8 +630,14 @@
       <c r="AF1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1990</v>
       </c>
@@ -668,8 +680,11 @@
       <c r="AB2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1991</v>
       </c>
@@ -715,8 +730,11 @@
       <c r="AB3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
@@ -762,8 +780,11 @@
       <c r="AB4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1993</v>
       </c>
@@ -809,8 +830,11 @@
       <c r="AB5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1994</v>
       </c>
@@ -856,8 +880,11 @@
       <c r="AB6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1995</v>
       </c>
@@ -903,8 +930,11 @@
       <c r="AB7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1996</v>
       </c>
@@ -953,8 +983,11 @@
       <c r="AB8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1997</v>
       </c>
@@ -1003,8 +1036,11 @@
       <c r="AB9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1998</v>
       </c>
@@ -1052,8 +1088,11 @@
       <c r="AB10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1999</v>
       </c>
@@ -1104,8 +1143,11 @@
       <c r="AF11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2000</v>
       </c>
@@ -1163,8 +1205,14 @@
       <c r="AF12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2001</v>
       </c>
@@ -1222,8 +1270,14 @@
       <c r="AF13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2002</v>
       </c>
@@ -1284,8 +1338,14 @@
       <c r="AF14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2003</v>
       </c>
@@ -1351,8 +1411,14 @@
       <c r="AF15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2004</v>
       </c>
@@ -1420,8 +1486,14 @@
       <c r="AF16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2005</v>
       </c>
@@ -1493,8 +1565,14 @@
       <c r="AF17" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2006</v>
       </c>
@@ -1567,8 +1645,14 @@
       <c r="AF18" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2007</v>
       </c>
@@ -1641,8 +1725,14 @@
       <c r="AF19" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2008</v>
       </c>
@@ -1718,8 +1808,14 @@
       <c r="AF20" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2009</v>
       </c>
@@ -1799,8 +1895,14 @@
       <c r="AF21" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2010</v>
       </c>
@@ -1883,8 +1985,14 @@
       <c r="AF22" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2011</v>
       </c>
@@ -1964,8 +2072,14 @@
       <c r="AF23" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2012</v>
       </c>
@@ -2051,8 +2165,14 @@
       <c r="AF24" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2013</v>
       </c>
@@ -2135,8 +2255,14 @@
       <c r="AF25" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -2224,8 +2350,14 @@
       <c r="AF26" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2015</v>
       </c>
@@ -2316,8 +2448,14 @@
       <c r="AF27" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2016</v>
       </c>
@@ -2404,8 +2542,14 @@
       <c r="AF28" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2017</v>
       </c>
@@ -2477,8 +2621,14 @@
       <c r="AE29" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AG29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -2519,7 +2669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -2540,7 +2690,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>13</v>

--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6EA490-481E-4D29-9C6B-C23B598AF3E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7C026E-4E22-4718-9B91-79B2306C8FBC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AF384890-0ED0-47B8-8474-760A6893F168}"/>
   </bookViews>

--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7C026E-4E22-4718-9B91-79B2306C8FBC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A64AD1-16FE-4957-904F-F78E47EAFB26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AF384890-0ED0-47B8-8474-760A6893F168}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="657">
   <si>
     <t>[ICTD &amp; GTT] Revenue including social contributions</t>
   </si>
@@ -1949,6 +1949,60 @@
   </si>
   <si>
     <t>(Click "+" to expand themes and explore variables.)</t>
+  </si>
+  <si>
+    <t>[USAID CTD] Tax Capacity</t>
+  </si>
+  <si>
+    <t>[USAID CTD] Tax Effort</t>
+  </si>
+  <si>
+    <t>[USAID CTD] Tax Buoyancy</t>
+  </si>
+  <si>
+    <t>[USAID CTD] VAT Buoyancy</t>
+  </si>
+  <si>
+    <t>[USAID CTD] CIT Buoyancy</t>
+  </si>
+  <si>
+    <t>[USAID CTD] PIT Buoyancy</t>
+  </si>
+  <si>
+    <t>[USAID CTD] VAT Efficiency</t>
+  </si>
+  <si>
+    <t>[USAID CTD] VAT C-Efficiency</t>
+  </si>
+  <si>
+    <t>[USAID CTD] VAT Gross Compliance Ratio</t>
+  </si>
+  <si>
+    <t>USAID Collecting Taxes Database</t>
+  </si>
+  <si>
+    <t>[USAID CTD] Cost</t>
+  </si>
+  <si>
+    <t>[USAID CTD] Number of taxpayers to number of tax administration staff</t>
+  </si>
+  <si>
+    <t>[USAID CTD] Population to number of tax administration staff</t>
+  </si>
+  <si>
+    <t>[USAID CTD] Workforce population to number of tax administration staff</t>
+  </si>
+  <si>
+    <t>[USAID CTD] e-Registration for taxes (available=1)</t>
+  </si>
+  <si>
+    <t>[USAID CTD] e-Filing for taxes (available=1)</t>
+  </si>
+  <si>
+    <t>[USAID CTD] e-Payment for taxes (available=1)</t>
+  </si>
+  <si>
+    <t>USAID CTD</t>
   </si>
 </sst>
 </file>
@@ -2054,7 +2108,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -2075,6 +2129,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -2395,7 +2450,7 @@
   <sheetPr>
     <outlinePr applyStyles="1" summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M16536"/>
+  <dimension ref="A1:M16553"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2404,7 +2459,7 @@
     <col min="1" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="6" t="s">
         <v>528</v>
       </c>
@@ -2412,83 +2467,80 @@
         <v>638</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="B4" s="4"/>
       <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
       <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
       <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -2733,2912 +2785,2959 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C72"/>
-    </row>
-    <row r="73" spans="1:3" s="2" customFormat="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
+    <row r="72" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="C72" s="15"/>
+    </row>
+    <row r="73" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="B73" s="16"/>
+      <c r="C73" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="B74" s="16"/>
+      <c r="C74" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="B75" s="16"/>
+      <c r="C75" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="B76" s="16"/>
+      <c r="C76" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="B77" s="16"/>
+      <c r="C77" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="B78" s="16"/>
+      <c r="C78" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="B79" s="16"/>
+      <c r="C79" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="B80" s="16"/>
+      <c r="C80" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="B81" s="16"/>
+      <c r="C81" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="2" customFormat="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="14" t="s">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="14" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C75" t="s">
+    <row r="84" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C84" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C76" t="s">
+    <row r="85" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C85" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C77" t="s">
+    <row r="86" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C86" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C78" t="s">
+    <row r="87" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C79" t="s">
+    <row r="88" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C80" t="s">
+    <row r="89" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C89" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="2:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C81" t="s">
+    <row r="90" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="2:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C82" t="s">
+    <row r="91" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C91" t="s">
         <v>490</v>
       </c>
-      <c r="K82"/>
-    </row>
-    <row r="83" spans="2:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C83" t="s">
+      <c r="K91"/>
+    </row>
+    <row r="92" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C92" t="s">
         <v>71</v>
       </c>
-      <c r="K83"/>
-    </row>
-    <row r="84" spans="2:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C84" t="s">
+      <c r="K92"/>
+    </row>
+    <row r="93" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C93" t="s">
         <v>491</v>
       </c>
-      <c r="K84"/>
-    </row>
-    <row r="85" spans="2:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C85" t="s">
+      <c r="K93"/>
+    </row>
+    <row r="94" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
         <v>448</v>
       </c>
-      <c r="K85"/>
-    </row>
-    <row r="86" spans="2:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C86" t="s">
+      <c r="K94"/>
+    </row>
+    <row r="95" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C95" t="s">
         <v>449</v>
       </c>
-      <c r="K86"/>
-    </row>
-    <row r="87" spans="2:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C87" t="s">
+      <c r="K95"/>
+    </row>
+    <row r="96" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C96" t="s">
         <v>450</v>
       </c>
-      <c r="K87"/>
-    </row>
-    <row r="88" spans="2:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C88" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C89" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C90" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C91" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C92" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C93" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C94" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C95" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="14" t="s">
-        <v>516</v>
-      </c>
+      <c r="K96"/>
     </row>
     <row r="97" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C97" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="14" t="s">
-        <v>524</v>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C98" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="99" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C99" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="100" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C100" t="s">
-        <v>525</v>
+        <v>492</v>
       </c>
     </row>
     <row r="101" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C101" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="14" t="s">
-        <v>519</v>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C102" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="103" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C103" t="s">
-        <v>330</v>
+        <v>621</v>
       </c>
     </row>
     <row r="104" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C104" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C105" t="s">
-        <v>332</v>
+      <c r="C104" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="14" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="106" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C106" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C107" t="s">
-        <v>334</v>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="14" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="108" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C108" t="s">
-        <v>335</v>
+        <v>441</v>
       </c>
     </row>
     <row r="109" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C109" t="s">
-        <v>336</v>
+        <v>525</v>
       </c>
     </row>
     <row r="110" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C110" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C111" t="s">
-        <v>338</v>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="14" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="112" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C112" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C113" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C114" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C115" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C116" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C117" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C118" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C119" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C120" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C121" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="113" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C113" t="s">
+    <row r="122" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C122" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="114" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C114" t="s">
+    <row r="123" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C123" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="115" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C115" t="s">
+    <row r="124" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C124" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="116" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C116" t="s">
+    <row r="125" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C125" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="117" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C117" t="s">
+    <row r="126" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C126" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="118" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C118" t="s">
+    <row r="127" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C127" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="119" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C119" t="s">
+    <row r="128" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C128" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="120" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C120" t="s">
+    <row r="129" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C129" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="121" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C121" t="s">
+    <row r="130" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C130" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="122" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C122" t="s">
+    <row r="131" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C131" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="123" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C123" t="s">
+    <row r="132" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C132" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="124" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C124" t="s">
+    <row r="133" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C133" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="125" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="14" t="s">
+    <row r="134" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="14" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="126" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C126" t="s">
+    <row r="135" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C135" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="127" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="14" t="s">
+    <row r="136" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B136" s="14" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="128" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C128" t="s">
+    <row r="137" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C137" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="129" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C129" t="s">
+    <row r="138" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C138" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="130" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C130" t="s">
+    <row r="139" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C139" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="131" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C131" t="s">
+    <row r="140" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C140" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="132" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C132" t="s">
+    <row r="141" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C141" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="133" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C133" t="s">
+    <row r="142" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C142" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="134" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C134" t="s">
+    <row r="143" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C143" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="135" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C135" t="s">
+    <row r="144" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C144" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="136" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C136" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="137" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C137" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="138" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C138" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="139" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C139" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="140" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C140" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="141" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C141" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="142" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C142" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="143" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C143" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="144" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C144" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="145" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C145" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="146" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C146" t="s">
-        <v>381</v>
+        <v>636</v>
       </c>
     </row>
     <row r="147" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C147" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="148" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C148" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="149" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C149" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="150" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C150" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="151" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C151" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="152" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C152" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="153" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C153" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="154" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C154" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="155" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C155" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="156" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C156" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="157" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C157" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="158" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C158" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="159" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C159" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="160" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C160" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C161" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C162" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C163" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C164" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C165" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C166" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C167" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C168" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C169" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="161" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C161" t="s">
+    <row r="170" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C170" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="162" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C162" t="s">
+    <row r="171" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C171" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="163" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C163" t="s">
+    <row r="172" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C172" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="164" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C164" t="s">
+    <row r="173" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C173" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="165" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C165" t="s">
+    <row r="174" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C174" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="166" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C166" t="s">
+    <row r="175" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C175" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="167" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C167" t="s">
+    <row r="176" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C176" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="168" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C168" t="s">
+    <row r="177" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C177" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="169" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C169" t="s">
+    <row r="178" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C178" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="170" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C170" t="s">
+    <row r="179" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C179" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="171" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C171" t="s">
+    <row r="180" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C180" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="172" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C172" t="s">
+    <row r="181" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C181" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="173" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C173" t="s">
+    <row r="182" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C182" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="174" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="14" t="s">
+    <row r="183" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B183" s="14" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="175" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C175" s="3" t="s">
+    <row r="184" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C184" s="3" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="176" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C176" s="3" t="s">
+    <row r="185" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C185" s="3" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="177" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C177" s="3" t="s">
+    <row r="186" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C186" s="3" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="178" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C178" s="3" t="s">
+    <row r="187" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C187" s="3" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="179" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C179" s="3" t="s">
+    <row r="188" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C188" s="3" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="180" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C180" s="3" t="s">
+    <row r="189" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C189" s="3" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="181" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C181" s="3" t="s">
+    <row r="190" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C190" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="182" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C182" s="3" t="s">
+    <row r="191" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C191" s="3" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="183" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C183" s="3" t="s">
+    <row r="192" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C192" s="3" t="s">
         <v>583</v>
-      </c>
-    </row>
-    <row r="184" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C184" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="185" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C185" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="186" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C186" s="3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="187" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C187" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="188" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C188" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="189" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C189" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="190" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C190" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="191" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C191" s="3" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="192" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C192" s="3" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="193" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C193" s="3" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="194" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C194" s="3" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="195" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C195" s="3" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="196" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C196" s="3" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="197" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C197" s="3" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="198" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C198" s="3" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="199" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C199" s="3" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="200" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C200" s="3" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="201" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C201" s="3" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="202" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C202" s="3" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="203" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C203" s="3" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="204" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C204" s="3" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="205" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C205" s="3" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="206" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C206" s="3" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="207" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C207" s="3" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
     </row>
     <row r="208" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C208" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C209" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C210" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C211" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C212" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C213" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C214" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C215" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C216" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C217" s="3" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="209" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C209" s="3" t="s">
+    <row r="218" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C218" s="3" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="210" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C210" s="3" t="s">
+    <row r="219" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C219" s="3" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="211" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C211" s="3" t="s">
+    <row r="220" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C220" s="3" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="212" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C212" s="3" t="s">
+    <row r="221" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C221" s="3" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="213" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C213" s="3" t="s">
+    <row r="222" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C222" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="214" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C214" s="3" t="s">
+    <row r="223" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C223" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="215" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C215" s="3" t="s">
+    <row r="224" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C224" s="3" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="216" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C216" s="3" t="s">
+    <row r="225" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C225" s="3" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="217" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C217" s="3" t="s">
+    <row r="226" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C226" s="3" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="218" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C218" s="3" t="s">
+    <row r="227" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C227" s="3" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="219" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C219" s="3" t="s">
+    <row r="228" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C228" s="3" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="220" spans="1:13" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B220" s="14" t="s">
+    <row r="229" spans="1:13" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B229" s="14" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="221" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C221" t="s">
+    <row r="230" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C230" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="222" spans="1:13" s="2" customFormat="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="2" t="s">
+    <row r="231" spans="1:13" s="2" customFormat="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="2" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="223" spans="1:13" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B223" s="14" t="s">
+    <row r="232" spans="1:13" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B232" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="M223" s="14" t="s">
+      <c r="M232" s="14" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="224" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C224" t="s">
+    <row r="233" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C233" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="225" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C225" t="s">
+    <row r="234" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C234" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="226" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C226" t="s">
+    <row r="235" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C235" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="227" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C227" t="s">
+    <row r="236" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C236" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="228" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C228" t="s">
+    <row r="237" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C237" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="229" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C229" t="s">
+    <row r="238" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C238" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="230" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C230" t="s">
+    <row r="239" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C239" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="231" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C231" t="s">
+    <row r="240" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C240" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="232" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C232" t="s">
+    <row r="241" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C241" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="233" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C233" t="s">
+    <row r="242" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C242" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="234" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C234" t="s">
+    <row r="243" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C243" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="235" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C235" t="s">
+    <row r="244" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C244" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="236" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C236" t="s">
+    <row r="245" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C245" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="237" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C237" t="s">
+    <row r="246" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C246" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="238" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B238" s="14" t="s">
+    <row r="247" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B247" s="14" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="239" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C239" t="s">
+    <row r="248" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C248" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="240" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C240" t="s">
+    <row r="249" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C249" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="241" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C241" t="s">
+    <row r="250" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C250" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="242" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C242" t="s">
+    <row r="251" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C251" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="243" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C243" t="s">
+    <row r="252" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C252" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="244" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C244" t="s">
+    <row r="253" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C253" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="245" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C245" t="s">
+    <row r="254" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C254" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="246" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C246" t="s">
+    <row r="255" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C255" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="247" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C247" t="s">
+    <row r="256" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C256" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="248" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C248" t="s">
+    <row r="257" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C257" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="249" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C249" t="s">
+    <row r="258" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C258" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="250" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C250" t="s">
+    <row r="259" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C259" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="251" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C251" t="s">
+    <row r="260" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C260" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="252" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C252" t="s">
+    <row r="261" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C261" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="253" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C253" t="s">
+    <row r="262" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C262" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="254" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C254" t="s">
+    <row r="263" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C263" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="255" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C255" t="s">
+    <row r="264" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C264" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="256" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C256" t="s">
+    <row r="265" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C265" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="257" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C257" t="s">
+    <row r="266" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C266" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="258" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C258" t="s">
+    <row r="267" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C267" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="259" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C259" t="s">
+    <row r="268" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C268" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="260" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C260" t="s">
+    <row r="269" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C269" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="261" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C261" t="s">
+    <row r="270" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C270" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="262" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C262" t="s">
+    <row r="271" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C271" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="263" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C263" t="s">
+    <row r="272" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C272" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="264" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C264" t="s">
+    <row r="273" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C273" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="265" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C265" t="s">
+    <row r="274" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C274" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="266" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C266" t="s">
+    <row r="275" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C275" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="267" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C267" t="s">
+    <row r="276" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C276" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="268" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B268" s="14" t="s">
+    <row r="277" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B277" s="14" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="269" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C269" t="s">
+    <row r="278" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C278" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="270" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B270" s="14" t="s">
+    <row r="279" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B279" s="14" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="271" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C271" t="s">
+    <row r="280" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C280" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="272" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C272" t="s">
+    <row r="281" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C281" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="273" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C273" t="s">
+    <row r="282" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C282" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="274" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C274" t="s">
+    <row r="283" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C283" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="275" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C275" t="s">
+    <row r="284" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C284" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="276" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C276" t="s">
+    <row r="285" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C285" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="277" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C277" t="s">
+    <row r="286" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C286" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="278" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C278" t="s">
+    <row r="287" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C287" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="279" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C279" t="s">
+    <row r="288" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C288" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="280" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C280" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="281" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C281" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="282" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C282" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="283" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C283" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="284" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C284" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="285" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C285" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="286" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C286" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="287" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C287" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="288" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C288" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="289" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C289" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="290" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C290" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="291" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C291" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" s="2" customFormat="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A292" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="C292" s="1"/>
-    </row>
-    <row r="293" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B293" s="14" t="s">
-        <v>494</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C292" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C293" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="294" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C294" t="s">
-        <v>86</v>
+        <v>424</v>
       </c>
     </row>
     <row r="295" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C295" t="s">
-        <v>87</v>
+        <v>425</v>
       </c>
     </row>
     <row r="296" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C296" t="s">
-        <v>88</v>
+        <v>426</v>
       </c>
     </row>
     <row r="297" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C297" t="s">
-        <v>89</v>
+        <v>427</v>
       </c>
     </row>
     <row r="298" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C298" t="s">
-        <v>90</v>
+        <v>428</v>
       </c>
     </row>
     <row r="299" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C299" t="s">
-        <v>91</v>
+        <v>429</v>
       </c>
     </row>
     <row r="300" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C300" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C301" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C302" t="s">
-        <v>94</v>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" s="2" customFormat="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C301" s="1"/>
+    </row>
+    <row r="302" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B302" s="14" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="303" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C303" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="304" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C304" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C305" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="306" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C306" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C307" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C308" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C309" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="310" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C310" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C311" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C312" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C313" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="305" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C305" t="s">
+    <row r="314" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C314" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="306" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C306" t="s">
+    <row r="315" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C315" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="307" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C307" t="s">
+    <row r="316" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C316" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="308" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C308" t="s">
+    <row r="317" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C317" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="309" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C309" t="s">
+    <row r="318" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C318" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="310" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C310" t="s">
+    <row r="319" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C319" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="311" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C311" t="s">
+    <row r="320" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C320" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="312" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C312" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="313" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C313" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="314" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C314" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="315" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B315" s="14" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="316" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C316" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="317" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C317" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="318" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C318" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="319" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C319" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="320" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C320" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="321" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C321" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
     </row>
     <row r="322" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C322" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
     </row>
     <row r="323" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C323" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="324" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C324" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="325" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B325" s="14" t="s">
-        <v>510</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B324" s="14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C325" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="326" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C326" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
     </row>
     <row r="327" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C327" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
     </row>
     <row r="328" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C328" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
     </row>
     <row r="329" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C329" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
     </row>
     <row r="330" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C330" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
     </row>
     <row r="331" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C331" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="332" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B332" s="14" t="s">
-        <v>499</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C332" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="333" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C333" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="334" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C334" t="s">
-        <v>501</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B334" s="14" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="335" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C335" t="s">
-        <v>502</v>
+        <v>222</v>
       </c>
     </row>
     <row r="336" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C336" t="s">
-        <v>500</v>
+        <v>223</v>
       </c>
     </row>
     <row r="337" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C337" t="s">
-        <v>504</v>
+        <v>224</v>
       </c>
     </row>
     <row r="338" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C338" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="339" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B339" s="14" t="s">
-        <v>514</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C339" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="340" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C340" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="341" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C341" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="342" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B342" s="14" t="s">
-        <v>523</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B341" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C342" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="343" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C343" t="s">
-        <v>431</v>
+        <v>501</v>
       </c>
     </row>
     <row r="344" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C344" t="s">
-        <v>432</v>
+        <v>502</v>
       </c>
     </row>
     <row r="345" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C345" t="s">
-        <v>433</v>
+        <v>500</v>
       </c>
     </row>
     <row r="346" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C346" t="s">
-        <v>434</v>
+        <v>504</v>
       </c>
     </row>
     <row r="347" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C347" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="348" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C348" t="s">
-        <v>436</v>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B348" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="349" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C349" t="s">
-        <v>437</v>
+        <v>300</v>
       </c>
     </row>
     <row r="350" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C350" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="351" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C351" t="s">
-        <v>439</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B351" s="14" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="352" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C352" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C353" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C354" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C355" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C356" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C357" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C358" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C359" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C360" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C361" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="353" spans="1:3" s="2" customFormat="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="2" t="s">
+    <row r="362" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B362" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="C362" s="15"/>
+    </row>
+    <row r="363" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C363" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C364" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C365" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C366" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C367" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C368" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C369" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" s="2" customFormat="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="C353" s="1"/>
-    </row>
-    <row r="354" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B354" s="15" t="s">
+      <c r="C370" s="1"/>
+    </row>
+    <row r="371" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B371" s="15" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="355" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C355" t="s">
+    <row r="372" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C372" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="356" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C356" t="s">
+    <row r="373" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C373" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="357" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C357" t="s">
+    <row r="374" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C374" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="358" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C358" t="s">
+    <row r="375" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C375" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="359" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C359" t="s">
+    <row r="376" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C376" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="360" spans="1:3" s="2" customFormat="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A360" s="2" t="s">
+    <row r="377" spans="1:3" s="2" customFormat="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="2" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="361" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B361" s="14" t="s">
+    <row r="378" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B378" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="C361" s="15"/>
-    </row>
-    <row r="362" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C362" t="s">
+      <c r="C378" s="15"/>
+    </row>
+    <row r="379" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C379" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="363" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C363" t="s">
+    <row r="380" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C380" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="364" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C364" t="s">
+    <row r="381" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C381" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="365" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C365" t="s">
+    <row r="382" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C382" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="366" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C366" t="s">
+    <row r="383" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C383" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="367" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C367" t="s">
+    <row r="384" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C384" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="368" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C368" t="s">
+    <row r="385" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C385" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="369" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C369" t="s">
+    <row r="386" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C386" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="370" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C370" t="s">
+    <row r="387" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C387" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="371" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C371" t="s">
+    <row r="388" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C388" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="372" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C372" t="s">
+    <row r="389" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C389" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="373" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C373" t="s">
+    <row r="390" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C390" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="374" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C374" t="s">
+    <row r="391" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C391" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="375" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C375" t="s">
+    <row r="392" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C392" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="376" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C376" t="s">
+    <row r="393" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C393" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="377" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C377" t="s">
+    <row r="394" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C394" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="378" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C378" t="s">
+    <row r="395" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C395" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="379" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C379" t="s">
+    <row r="396" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C396" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="380" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C380" t="s">
+    <row r="397" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C397" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="381" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C381" t="s">
+    <row r="398" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C398" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="382" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C382" t="s">
+    <row r="399" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C399" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="383" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C383" t="s">
+    <row r="400" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C400" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="384" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C384" t="s">
+    <row r="401" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C401" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="385" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C385" t="s">
+    <row r="402" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C402" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="386" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C386" t="s">
+    <row r="403" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C403" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="387" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C387" t="s">
+    <row r="404" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C404" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="388" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C388" t="s">
+    <row r="405" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C405" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="389" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C389" t="s">
+    <row r="406" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C406" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="390" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C390" t="s">
+    <row r="407" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C407" t="s">
         <v>153</v>
       </c>
-      <c r="M390" s="3" t="s">
+      <c r="M407" s="3" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="391" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C391" t="s">
+    <row r="408" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C408" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="392" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C392" t="s">
+    <row r="409" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C409" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="393" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C393" t="s">
+    <row r="410" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C410" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="394" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C394" t="s">
+    <row r="411" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C411" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="395" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C395" t="s">
+    <row r="412" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C412" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="396" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C396" t="s">
+    <row r="413" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C413" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="397" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C397" t="s">
+    <row r="414" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C414" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="398" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C398" t="s">
+    <row r="415" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C415" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="399" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C399" t="s">
+    <row r="416" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C416" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="400" spans="3:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C400" t="s">
+    <row r="417" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C417" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="401" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C401" t="s">
+    <row r="418" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C418" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="402" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C402" t="s">
+    <row r="419" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C419" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="403" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C403" t="s">
+    <row r="420" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C420" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="404" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C404" t="s">
+    <row r="421" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C421" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="405" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C405" t="s">
+    <row r="422" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C422" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="406" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C406" t="s">
+    <row r="423" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C423" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="407" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C407" t="s">
+    <row r="424" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C424" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="408" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C408" t="s">
+    <row r="425" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C425" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="409" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C409" t="s">
+    <row r="426" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C426" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="410" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C410" t="s">
+    <row r="427" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C427" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="411" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C411" t="s">
+    <row r="428" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C428" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="412" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C412" t="s">
+    <row r="429" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C429" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="413" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C413" t="s">
+    <row r="430" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C430" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="414" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C414" t="s">
+    <row r="431" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C431" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="415" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C415" t="s">
+    <row r="432" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C432" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="416" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C416" t="s">
+    <row r="433" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C433" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="417" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C417" t="s">
+    <row r="434" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C434" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="418" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C418" t="s">
+    <row r="435" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C435" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="419" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B419" s="14" t="s">
+    <row r="436" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B436" s="14" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="420" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C420" t="s">
+    <row r="437" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C437" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="421" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C421" t="s">
+    <row r="438" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C438" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="422" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C422" t="s">
+    <row r="439" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C439" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="423" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C423" t="s">
+    <row r="440" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C440" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="424" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C424" t="s">
+    <row r="441" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C441" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="425" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C425" t="s">
+    <row r="442" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C442" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="426" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C426" t="s">
+    <row r="443" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C443" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="427" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C427" t="s">
+    <row r="444" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C444" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="428" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C428" t="s">
+    <row r="445" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C445" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="429" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C429" t="s">
+    <row r="446" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C446" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="430" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C430" t="s">
+    <row r="447" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C447" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="431" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C431" t="s">
+    <row r="448" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C448" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="432" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C432" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="433" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C433" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="434" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C434" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="435" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C435" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="436" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C436" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="437" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C437" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="438" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C438" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="439" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C439" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="440" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C440" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="441" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C441" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="442" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C442" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="443" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C443" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="444" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C444" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="445" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C445" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="446" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C446" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="447" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C447" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="448" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C448" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="449" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C449" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="450" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C450" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="451" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C451" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="452" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C452" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="453" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C453" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="454" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C454" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="455" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C455" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="456" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C456" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="457" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C457" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="458" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C458" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="459" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C459" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="460" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C460" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="461" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C461" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="462" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C462" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="463" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C463" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="464" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C464" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="465" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C465" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="466" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C466" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="467" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C467" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="468" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C468" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="469" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C469" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="470" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C470" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="471" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C471" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="472" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C472" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="473" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C473" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="474" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C474" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="475" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C475" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="476" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C476" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="477" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C477" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="478" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C478" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="479" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C479" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="480" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C480" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="481" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C481" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="482" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C482" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="483" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C483" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="484" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C484" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="485" spans="3:3" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="485" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C485" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="486" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C486" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="487" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C487" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="488" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C488" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="489" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C489" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="490" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C490" t="s">
-        <v>182</v>
+        <v>282</v>
       </c>
     </row>
     <row r="491" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C491" t="s">
-        <v>183</v>
+        <v>283</v>
       </c>
     </row>
     <row r="492" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C492" t="s">
-        <v>184</v>
+        <v>284</v>
       </c>
     </row>
     <row r="493" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C493" t="s">
-        <v>185</v>
+        <v>285</v>
       </c>
     </row>
     <row r="494" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C494" t="s">
-        <v>186</v>
+        <v>286</v>
       </c>
     </row>
     <row r="495" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C495" t="s">
-        <v>187</v>
+        <v>287</v>
       </c>
     </row>
     <row r="496" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C496" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="497" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C497" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="498" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C498" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="499" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C499" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="500" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C500" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="501" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C501" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="502" spans="3:3" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="C502" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="503" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C503" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="504" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C504" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="505" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C505" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="506" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C506" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="507" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C507" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="508" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C508" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="509" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C509" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="510" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C510" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="511" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C511" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="512" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C512" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C513" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="497" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C497" t="s">
+    <row r="514" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C514" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="498" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B498" s="14" t="s">
+    <row r="515" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B515" s="14" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="499" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C499" t="s">
+    <row r="516" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C516" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="500" spans="1:3" s="2" customFormat="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A500" s="2" t="s">
+    <row r="517" spans="1:3" s="2" customFormat="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A517" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="C500" s="1"/>
-    </row>
-    <row r="501" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B501" s="14" t="s">
+      <c r="C517" s="1"/>
+    </row>
+    <row r="518" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B518" s="14" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="502" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C502" t="s">
+    <row r="519" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C519" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="503" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C503" t="s">
+    <row r="520" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C520" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="504" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C504" t="s">
+    <row r="521" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C521" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="505" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C505" t="s">
+    <row r="522" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C522" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="506" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B506" s="14" t="s">
+    <row r="523" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B523" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="C506" s="15"/>
-    </row>
-    <row r="507" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C507" t="s">
+      <c r="C523" s="15"/>
+    </row>
+    <row r="524" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C524" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="508" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C508" t="s">
+    <row r="525" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C525" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="509" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B509" s="14" t="s">
+    <row r="526" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B526" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="C509" s="15"/>
-    </row>
-    <row r="510" spans="1:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="C510" t="s">
+      <c r="C526" s="15"/>
+    </row>
+    <row r="527" spans="1:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="C527" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="511" spans="1:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="C511" t="s">
+    <row r="528" spans="1:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="C528" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="512" spans="1:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="C512" t="s">
+    <row r="529" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="C529" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="513" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="C513" t="s">
+    <row r="530" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="C530" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="514" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="C514" t="s">
+    <row r="531" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="C531" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="515" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="C515" t="s">
+    <row r="532" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="C532" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="516" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="C516" t="s">
+    <row r="533" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="C533" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="517" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="C517" t="s">
+    <row r="534" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="C534" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="518" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="C518" t="s">
+    <row r="535" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="C535" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="519" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="C519" t="s">
+    <row r="536" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="C536" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="520" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="C520" t="s">
+    <row r="537" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="C537" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="521" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="C521" t="s">
+    <row r="538" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="C538" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="522" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="C522" t="s">
+    <row r="539" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="C539" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="523" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="C523" t="s">
+    <row r="540" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="C540" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="524" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="C524" t="s">
+    <row r="541" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="C541" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="525" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="C525" t="s">
+    <row r="542" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="C542" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="526" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="C526" t="s">
+    <row r="543" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="C543" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="527" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="C527" t="s">
+    <row r="544" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="C544" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="528" spans="3:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="C528" t="s">
+    <row r="545" spans="1:3" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="C545" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="529" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B529" s="14" t="s">
+    <row r="546" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B546" s="14" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="530" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C530" t="s">
+    <row r="547" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C547" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="531" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C531" t="s">
+    <row r="548" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C548" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="532" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C532" t="s">
+    <row r="549" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C549" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="533" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C533" t="s">
+    <row r="550" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C550" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="534" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C534" t="s">
+    <row r="551" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C551" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="535" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C535" t="s">
+    <row r="552" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C552" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="536" spans="1:3" s="2" customFormat="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A536" s="2" t="s">
+    <row r="553" spans="1:3" s="2" customFormat="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A553" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="C536" s="1"/>
-    </row>
-    <row r="537" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B537" s="14" t="s">
+      <c r="C553" s="1"/>
+    </row>
+    <row r="554" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B554" s="14" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="538" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C538" t="s">
+    <row r="555" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C555" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="539" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C539" t="s">
+    <row r="556" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C556" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="540" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C540" t="s">
+    <row r="557" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C557" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="541" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C541" t="s">
+    <row r="558" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C558" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="542" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C542" t="s">
+    <row r="559" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C559" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="543" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C543" t="s">
+    <row r="560" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C560" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="544" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C544" t="s">
+    <row r="561" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C561" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="545" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C545" t="s">
+    <row r="562" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C562" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="546" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C546" t="s">
+    <row r="563" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C563" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="547" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C547" t="s">
+    <row r="564" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C564" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="548" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C548" t="s">
+    <row r="565" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C565" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="549" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C549" t="s">
+    <row r="566" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C566" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="550" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C550" t="s">
+    <row r="567" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C567" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="551" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C551" t="s">
+    <row r="568" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C568" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="552" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C552" t="s">
+    <row r="569" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C569" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="553" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C553" t="s">
+    <row r="570" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C570" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="554" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C554" t="s">
+    <row r="571" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C571" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="555" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C555" t="s">
+    <row r="572" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C572" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="556" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C556" t="s">
+    <row r="573" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C573" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="557" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C557" t="s">
+    <row r="574" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C574" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="558" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C558" t="s">
+    <row r="575" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C575" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="559" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C559" t="s">
+    <row r="576" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C576" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="560" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C560" t="s">
+    <row r="577" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C577" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="561" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C561" t="s">
+    <row r="578" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C578" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="562" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C562" t="s">
+    <row r="579" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C579" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="563" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C563" t="s">
+    <row r="580" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C580" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="564" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C564" t="s">
+    <row r="581" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C581" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="565" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C565" t="s">
+    <row r="582" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C582" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="566" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B566" s="14" t="s">
+    <row r="583" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B583" s="14" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="567" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C567" t="s">
+    <row r="584" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C584" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="568" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C568" t="s">
+    <row r="585" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C585" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="569" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C569" t="s">
+    <row r="586" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C586" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="570" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C570" t="s">
+    <row r="587" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C587" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="571" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C571" t="s">
+    <row r="588" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C588" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="572" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C572" t="s">
+    <row r="589" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C589" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="573" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B573" s="14" t="s">
+    <row r="590" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B590" s="14" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="574" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C574" t="s">
+    <row r="591" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C591" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="575" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C575" t="s">
+    <row r="592" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C592" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="576" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C576" t="s">
+    <row r="593" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C593" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="577" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C577" t="s">
+    <row r="594" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C594" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="578" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C578" t="s">
+    <row r="595" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C595" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="579" spans="1:3" s="2" customFormat="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A579" s="2" t="s">
+    <row r="596" spans="1:3" s="2" customFormat="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A596" s="2" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="580" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B580" s="14" t="s">
+    <row r="597" spans="1:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B597" s="14" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="581" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C581" t="s">
+    <row r="598" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C598" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="582" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C582" t="s">
+    <row r="599" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C599" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="583" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C583" t="s">
+    <row r="600" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C600" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="584" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C584" t="s">
+    <row r="601" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C601" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="585" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C585" t="s">
+    <row r="602" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C602" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="586" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C586" t="s">
+    <row r="603" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C603" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="587" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C587" t="s">
+    <row r="604" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C604" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="588" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C588" t="s">
+    <row r="605" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C605" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="589" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C589" t="s">
+    <row r="606" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C606" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="590" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C590" t="s">
+    <row r="607" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C607" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="591" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C591" t="s">
+    <row r="608" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C608" t="s">
         <v>458</v>
-      </c>
-    </row>
-    <row r="592" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C592" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="593" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C593" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="594" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C594" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="595" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C595" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="596" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C596" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="597" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C597" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="598" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C598" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="599" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C599" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="600" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C600" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="601" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C601" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="602" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C602" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="603" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C603" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="604" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C604" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="605" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C605" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="606" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C606" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="607" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C607" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="608" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C608" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="609" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C609" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="610" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C610" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="611" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C611" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
     </row>
     <row r="612" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C612" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="613" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C613" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="614" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C614" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
     </row>
     <row r="615" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C615" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
     </row>
     <row r="616" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C616" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="617" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C617" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
     </row>
     <row r="618" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C618" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
     </row>
     <row r="619" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C619" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
     </row>
     <row r="620" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C620" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
     </row>
     <row r="621" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C621" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
     </row>
     <row r="622" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C622" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
     </row>
     <row r="623" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C623" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="624" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="C624" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="625" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C625" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="626" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C626" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="627" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C627" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="628" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C628" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="629" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C629" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="630" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C630" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="631" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C631" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="632" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C632" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="633" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C633" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="634" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C634" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="635" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C635" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="636" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C636" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="637" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C637" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="638" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C638" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="639" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C639" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="640" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C640" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="641" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C641" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="625" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C625" t="s">
+    <row r="642" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C642" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="626" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C626" t="s">
+    <row r="643" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C643" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="627" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C627" t="s">
+    <row r="644" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C644" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="628" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C628" t="s">
+    <row r="645" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C645" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="629" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C629" t="s">
+    <row r="646" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C646" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="630" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B630" s="14" t="s">
+    <row r="647" spans="2:3" s="14" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B647" s="14" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="631" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="C631" t="s">
+    <row r="648" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C648" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="644" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K644" s="5"/>
-    </row>
-    <row r="723" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D723"/>
-    </row>
-    <row r="724" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D724"/>
-    </row>
-    <row r="725" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D725"/>
-    </row>
-    <row r="726" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D726"/>
-    </row>
-    <row r="727" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D727"/>
-    </row>
-    <row r="728" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D728"/>
-    </row>
-    <row r="729" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D729"/>
-    </row>
-    <row r="730" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D730"/>
-    </row>
-    <row r="731" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D731"/>
-    </row>
-    <row r="732" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D732"/>
-    </row>
-    <row r="733" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D733"/>
-    </row>
-    <row r="734" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D734"/>
-    </row>
-    <row r="735" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D735"/>
-    </row>
-    <row r="736" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D736"/>
-    </row>
-    <row r="737" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D737"/>
-    </row>
-    <row r="738" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D738"/>
-    </row>
-    <row r="739" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D739"/>
+    <row r="661" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K661" s="5"/>
     </row>
     <row r="740" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D740"/>
@@ -5661,6 +5760,9 @@
     <row r="746" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D746"/>
     </row>
+    <row r="747" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D747"/>
+    </row>
     <row r="748" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D748"/>
     </row>
@@ -5709,9 +5811,6 @@
     <row r="763" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D763"/>
     </row>
-    <row r="764" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D764"/>
-    </row>
     <row r="765" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D765"/>
     </row>
@@ -5772,41 +5871,52 @@
     <row r="784" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D784"/>
     </row>
-    <row r="785" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="785" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D785"/>
     </row>
-    <row r="790" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="786" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D786"/>
+    </row>
+    <row r="787" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D787"/>
+    </row>
+    <row r="788" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D788"/>
+    </row>
+    <row r="789" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D789"/>
+    </row>
+    <row r="790" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D790"/>
     </row>
-    <row r="791" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="791" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D791"/>
     </row>
-    <row r="792" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="792" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D792"/>
     </row>
-    <row r="793" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="793" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D793"/>
-      <c r="M793" s="13"/>
-    </row>
-    <row r="794" spans="4:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="794" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D794"/>
     </row>
-    <row r="795" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="795" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D795"/>
     </row>
-    <row r="796" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="796" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D796"/>
     </row>
-    <row r="797" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="797" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D797"/>
     </row>
-    <row r="798" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="798" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D798"/>
     </row>
-    <row r="799" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="799" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D799"/>
     </row>
-    <row r="800" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="800" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D800"/>
     </row>
     <row r="801" spans="4:13" x14ac:dyDescent="0.35">
@@ -5815,30 +5925,18 @@
     <row r="802" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D802"/>
     </row>
-    <row r="803" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D803"/>
-    </row>
-    <row r="804" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D804"/>
-    </row>
-    <row r="805" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D805"/>
-    </row>
-    <row r="806" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D806"/>
-    </row>
     <row r="807" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D807"/>
     </row>
     <row r="808" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D808"/>
-      <c r="M808" s="13"/>
     </row>
     <row r="809" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D809"/>
     </row>
     <row r="810" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D810"/>
+      <c r="M810" s="13"/>
     </row>
     <row r="811" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D811"/>
@@ -5858,52 +5956,53 @@
     <row r="816" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D816"/>
     </row>
-    <row r="817" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="817" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D817"/>
     </row>
-    <row r="818" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="818" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D818"/>
     </row>
-    <row r="819" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="819" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D819"/>
     </row>
-    <row r="820" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="820" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D820"/>
     </row>
-    <row r="821" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="821" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D821"/>
     </row>
-    <row r="822" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="822" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D822"/>
     </row>
-    <row r="823" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="823" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D823"/>
     </row>
-    <row r="824" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="824" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D824"/>
     </row>
-    <row r="825" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="825" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D825"/>
-    </row>
-    <row r="826" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="M825" s="13"/>
+    </row>
+    <row r="826" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D826"/>
     </row>
-    <row r="827" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="827" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D827"/>
     </row>
-    <row r="828" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="828" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D828"/>
     </row>
-    <row r="829" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="829" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D829"/>
     </row>
-    <row r="830" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="830" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D830"/>
     </row>
-    <row r="831" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="831" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D831"/>
     </row>
-    <row r="832" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="832" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D832"/>
     </row>
     <row r="833" spans="4:4" x14ac:dyDescent="0.35">
@@ -53017,6 +53116,57 @@
     </row>
     <row r="16536" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D16536"/>
+    </row>
+    <row r="16537" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D16537"/>
+    </row>
+    <row r="16538" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D16538"/>
+    </row>
+    <row r="16539" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D16539"/>
+    </row>
+    <row r="16540" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D16540"/>
+    </row>
+    <row r="16541" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D16541"/>
+    </row>
+    <row r="16542" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D16542"/>
+    </row>
+    <row r="16543" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D16543"/>
+    </row>
+    <row r="16544" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D16544"/>
+    </row>
+    <row r="16545" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D16545"/>
+    </row>
+    <row r="16546" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D16546"/>
+    </row>
+    <row r="16547" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D16547"/>
+    </row>
+    <row r="16548" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D16548"/>
+    </row>
+    <row r="16549" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D16549"/>
+    </row>
+    <row r="16550" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D16550"/>
+    </row>
+    <row r="16551" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D16551"/>
+    </row>
+    <row r="16552" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D16552"/>
+    </row>
+    <row r="16553" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D16553"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -53026,13 +53176,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB4AA98-F60B-4232-800C-071F2593A6AC}">
-  <dimension ref="A1:AI32"/>
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -53040,7 +53190,7 @@
     <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
       <c r="B1" s="11" t="s">
         <v>539</v>
@@ -53144,8 +53294,11 @@
       <c r="AI1" s="11" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AJ1" s="11" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1990</v>
       </c>
@@ -53192,7 +53345,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>1991</v>
       </c>
@@ -53242,7 +53395,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>1992</v>
       </c>
@@ -53292,7 +53445,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>1993</v>
       </c>
@@ -53342,7 +53495,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>1994</v>
       </c>
@@ -53392,7 +53545,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>1995</v>
       </c>
@@ -53442,7 +53595,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>1996</v>
       </c>
@@ -53495,7 +53648,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>1997</v>
       </c>
@@ -53548,7 +53701,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>1998</v>
       </c>
@@ -53600,7 +53753,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>1999</v>
       </c>
@@ -53655,7 +53808,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2000</v>
       </c>
@@ -53719,8 +53872,11 @@
       <c r="AH12" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AJ12" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2001</v>
       </c>
@@ -53784,8 +53940,11 @@
       <c r="AH13" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AJ13" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2002</v>
       </c>
@@ -53852,8 +54011,11 @@
       <c r="AH14" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AJ14" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2003</v>
       </c>
@@ -53925,8 +54087,11 @@
       <c r="AH15" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AJ15" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2004</v>
       </c>
@@ -54000,8 +54165,11 @@
       <c r="AH16" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AJ16" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2005</v>
       </c>
@@ -54079,8 +54247,11 @@
       <c r="AH17" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AJ17" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2006</v>
       </c>
@@ -54159,8 +54330,11 @@
       <c r="AH18" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AJ18" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2007</v>
       </c>
@@ -54239,8 +54413,11 @@
       <c r="AH19" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AJ19" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>2008</v>
       </c>
@@ -54322,8 +54499,11 @@
       <c r="AH20" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AJ20" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>2009</v>
       </c>
@@ -54409,8 +54589,11 @@
       <c r="AH21" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="22" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AJ21" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>2010</v>
       </c>
@@ -54499,8 +54682,11 @@
       <c r="AH22" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="23" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AJ22" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>2011</v>
       </c>
@@ -54589,8 +54775,11 @@
       <c r="AI23" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="24" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AJ23" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>2012</v>
       </c>
@@ -54682,8 +54871,11 @@
       <c r="AH24" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="25" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AJ24" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>2013</v>
       </c>
@@ -54773,8 +54965,11 @@
         <v>570</v>
       </c>
       <c r="AI25" s="7"/>
-    </row>
-    <row r="26" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AJ25" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>2014</v>
       </c>
@@ -54871,8 +55066,11 @@
       <c r="AI26" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="27" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AJ26" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>2015</v>
       </c>
@@ -54969,8 +55167,11 @@
       <c r="AH27" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="28" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AJ27" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>2016</v>
       </c>
@@ -55063,8 +55264,11 @@
       <c r="AH28" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AJ28" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>2017</v>
       </c>
@@ -55146,7 +55350,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>571</v>
       </c>
@@ -55187,7 +55391,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>572</v>
       </c>
@@ -55208,7 +55412,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
         <v>573</v>
@@ -55232,6 +55436,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100034828AF301E9749A33AA6F67BB58F7F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d50310f53bc0cb2261bbae5da474b620">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="953093f3-07f8-4a2a-91b0-321886521c09" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d93d2b7ce309a61619c75d41940220fe" ns3:_="">
     <xsd:import namespace="953093f3-07f8-4a2a-91b0-321886521c09"/>
@@ -55403,22 +55622,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60FC610E-21B8-4EB4-ACF6-2561E3360165}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD55EB9A-8F96-4E41-AA8F-F14CF8679550}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="953093f3-07f8-4a2a-91b0-321886521c09"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A964906E-7590-4D3B-894C-827C7A073BBE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55434,28 +55662,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD55EB9A-8F96-4E41-AA8F-F14CF8679550}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="953093f3-07f8-4a2a-91b0-321886521c09"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60FC610E-21B8-4EB4-ACF6-2561E3360165}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Desktop\Tax-Datasets-master\Country-Year Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\Country-Year Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5ECE016-54FA-4DC1-941B-A097857C8152}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478D4A66-172B-4413-B1D9-F5BC8CE5B573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="298" activeTab="1" xr2:uid="{AF384890-0ED0-47B8-8474-760A6893F168}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="662">
   <si>
     <t>[ICTD &amp; GTT] Revenue including social contributions</t>
   </si>
@@ -53197,7 +53197,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55470,7 +55470,7 @@
         <v>570</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>660</v>
+        <v>570</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>570</v>
@@ -55538,7 +55538,7 @@
         <v>570</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>660</v>
+        <v>570</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -55595,7 +55595,9 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>660</v>
+      </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="7"/>
@@ -55730,6 +55732,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100034828AF301E9749A33AA6F67BB58F7F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d50310f53bc0cb2261bbae5da474b620">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="953093f3-07f8-4a2a-91b0-321886521c09" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d93d2b7ce309a61619c75d41940220fe" ns3:_="">
     <xsd:import namespace="953093f3-07f8-4a2a-91b0-321886521c09"/>
@@ -55901,32 +55912,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD55EB9A-8F96-4E41-AA8F-F14CF8679550}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="953093f3-07f8-4a2a-91b0-321886521c09"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="953093f3-07f8-4a2a-91b0-321886521c09"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60FC610E-21B8-4EB4-ACF6-2561E3360165}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A964906E-7590-4D3B-894C-827C7A073BBE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55942,12 +55952,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60FC610E-21B8-4EB4-ACF6-2561E3360165}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Country-Year Data/Datasets and Years.xlsx
+++ b/Country-Year Data/Datasets and Years.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\Documents\GGOGT STC\Master Dataset\Country-Year Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB542385\OneDrive - WBG\Documents\GGOGT STC\Master Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478D4A66-172B-4413-B1D9-F5BC8CE5B573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{478D4A66-172B-4413-B1D9-F5BC8CE5B573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CEFB8630-7BD6-4A39-99A1-82A3BC61421A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="298" activeTab="1" xr2:uid="{AF384890-0ED0-47B8-8474-760A6893F168}"/>
   </bookViews>
@@ -53194,10 +53194,10 @@
   <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55596,7 +55596,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>660</v>
+        <v>570</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -55726,21 +55726,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100034828AF301E9749A33AA6F67BB58F7F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d50310f53bc0cb2261bbae5da474b620">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="953093f3-07f8-4a2a-91b0-321886521c09" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d93d2b7ce309a61619c75d41940220fe" ns3:_="">
     <xsd:import namespace="953093f3-07f8-4a2a-91b0-321886521c09"/>
@@ -55912,31 +55897,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD55EB9A-8F96-4E41-AA8F-F14CF8679550}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="953093f3-07f8-4a2a-91b0-321886521c09"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60FC610E-21B8-4EB4-ACF6-2561E3360165}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A964906E-7590-4D3B-894C-827C7A073BBE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55952,4 +55928,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60FC610E-21B8-4EB4-ACF6-2561E3360165}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD55EB9A-8F96-4E41-AA8F-F14CF8679550}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="953093f3-07f8-4a2a-91b0-321886521c09"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>